--- a/구매 예정 리스트.xlsx
+++ b/구매 예정 리스트.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\CrawlHelper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217C7F59-EFCC-4A96-A1CD-C087291B9CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E222545-B58E-49C5-B9C2-D1CE483AD232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1164" windowWidth="21600" windowHeight="11232" xr2:uid="{E05FF8A7-2D10-44CA-86C7-99151189282F}"/>
+    <workbookView xWindow="-14265" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{E05FF8A7-2D10-44CA-86C7-99151189282F}"/>
   </bookViews>
   <sheets>
     <sheet name="입력폼" sheetId="8" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10842" uniqueCount="3817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12119" uniqueCount="4457">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -11522,25 +11522,6 @@
     <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0004544595</t>
   </si>
   <si>
-    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0004308850&amp;depth=1&amp;search_text=키홀더</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>센스2030 A4 시스템바구니</t>
-  </si>
-  <si>
-    <t>0000062322</t>
-  </si>
-  <si>
-    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0000062322</t>
-  </si>
-  <si>
-    <t>센스2030</t>
-  </si>
-  <si>
     <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0002959963&amp;depth=1&amp;search_text=자동 리드줄</t>
   </si>
   <si>
@@ -11587,6 +11568,2100 @@
   </si>
   <si>
     <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0004469865&amp;depth=1&amp;search_text=미용 가위</t>
+  </si>
+  <si>
+    <t>아비드 하드 안경케이스 / 선글라스케이스</t>
+  </si>
+  <si>
+    <t>접이식 하드 안경케이스(블루)/ 휴대 선글라스케이스</t>
+  </si>
+  <si>
+    <t>접이식 하드 안경케이스(골드)/ 휴대 선글라스케이스</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0003731580&amp;depth=1&amp;search_text=%EC%95%88%EA%B2%BD%20%EC%BC%80%EC%9D%B4%EC%8A%A4</t>
+  </si>
+  <si>
+    <t>접이식 하드 안경케이스(핑크)/ 휴대 선글라스케이스</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0003731581&amp;depth=1&amp;search_text=%EC%95%88%EA%B2%BD%20%EC%BC%80%EC%9D%B4%EC%8A%A4</t>
+  </si>
+  <si>
+    <t>접이식 하드 안경케이스(블랙)/ 휴대 선글라스케이스</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0003731579&amp;depth=1&amp;search_text=안경 케이스</t>
+  </si>
+  <si>
+    <t>스티치 가죽 하드 안경케이스 / 선글라스케이스</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0003731583&amp;depth=1&amp;search_text=안경 케이스</t>
+  </si>
+  <si>
+    <t xml:space="preserve">뉴트로 가죽 선글라스 케이스(그레이)/선글라스파우치 </t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0003258724&amp;depth=1&amp;search_text=%EC%95%88%EA%B2%BD%20%EC%BC%80%EC%9D%B4%EC%8A%A4</t>
+  </si>
+  <si>
+    <t>뉴트로 가죽 선글라스 케이스(블루)/선글라스파우치</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0003258723&amp;depth=1&amp;search_text=안경 케이스</t>
+  </si>
+  <si>
+    <t>플랙스 하드 안경케이스(스카이)/ 선글라스케이스</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0003731576&amp;depth=1&amp;search_text=%EC%95%88%EA%B2%BD%20%EC%BC%80%EC%9D%B4%EC%8A%A4</t>
+  </si>
+  <si>
+    <t>아즈텍 하드 안경케이스 /선글라스 안경보관함</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0003258705&amp;depth=1&amp;search_text=안경 케이스</t>
+  </si>
+  <si>
+    <t>블린스 하드 안경케이스/ 선글라스케이스 안경집</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0003258695&amp;depth=1&amp;search_text=안경 케이스</t>
+  </si>
+  <si>
+    <t>블린스 하드 안경케이스/안경집 선글라스케이스</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0003258687&amp;depth=1&amp;search_text=안경 케이스</t>
+  </si>
+  <si>
+    <t>로스트볼 A급 세인트나인 10알 골프공 화이트</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005308782&amp;depth=1&amp;search_text=%EA%B3%A8%ED%94%84%EA%B3%B5</t>
+  </si>
+  <si>
+    <t>브렌스 골프</t>
+  </si>
+  <si>
+    <t>로스트볼 연습장 골프공 토탈브랜드 10입세트 칼라</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0003652374&amp;depth=1&amp;search_text=골프공</t>
+  </si>
+  <si>
+    <t>베스타몰</t>
+  </si>
+  <si>
+    <t>로스트볼 연습장 골프공 토탈브랜드 10입세트 화이트</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0003652373&amp;depth=1&amp;search_text=골프공</t>
+  </si>
+  <si>
+    <t>로스트볼 연습장 골프공 토탈브랜드 A급 10입세트</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0003250671&amp;depth=1&amp;search_text=골프공</t>
+  </si>
+  <si>
+    <t>코비스 플라스틱 천공 연습용 골프공 12PCS PB001</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0004806799&amp;depth=1&amp;search_text=골프공</t>
+  </si>
+  <si>
+    <t>코비스 소프트 엘라스틱 연습용 골프공 12PCS PB005</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0004806806&amp;depth=1&amp;search_text=골프공</t>
+  </si>
+  <si>
+    <t>코비스 고무 천공 연습용 골프공 12PCS PB004</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0004806805&amp;depth=1&amp;search_text=%EA%B3%A8%ED%94%84%EA%B3%B5</t>
+  </si>
+  <si>
+    <t>코비스 레인보우 연습용 골프공 12PCS PB003</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0004806803&amp;depth=1&amp;search_text=골프공</t>
+  </si>
+  <si>
+    <t>코비스 딤플 플라스틱 연습용 골프공 12PCS PB002</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0004806801&amp;depth=1&amp;search_text=골프공</t>
+  </si>
+  <si>
+    <t>하이가이 연습용 무지개 골프공</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005269556&amp;depth=1&amp;search_text=%EA%B3%A8%ED%94%84%EA%B3%B5</t>
+  </si>
+  <si>
+    <t>하이가이 연습용 플라스틱 골프공</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005269554&amp;depth=1&amp;search_text=%EA%B3%A8%ED%94%84%EA%B3%B5</t>
+  </si>
+  <si>
+    <t>라이프기어 LED 손전등 후레쉬 LG02</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0001875009&amp;depth=1&amp;search_text=%EC%86%90%EC%A0%84%EB%93%B1</t>
+  </si>
+  <si>
+    <t>헬스프로</t>
+  </si>
+  <si>
+    <t>라이프기어 LED 손전등 후레쉬 LG09</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0001875012&amp;depth=1&amp;search_text=%EC%86%90%EC%A0%84%EB%93%B1</t>
+  </si>
+  <si>
+    <t>캠핑/손전등/led</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0001333404&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>하오</t>
+  </si>
+  <si>
+    <t>손전등hao2/led</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0001335256&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>손전등hao3삼색등/led</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0001335291&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>손전등hao3삼색등/led/노랑</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0001335316&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>손전등hao3삼색등/led/녹색</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0001335468&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>손전등hao3삼색등/led/주황</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0001335516&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>조흥 후레쉬 손전등 캠핑 라이트 낚시 조명 랜턴 서치</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0003890535&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>LED 14구 휴대용 후레쉬 랜턴 낚시 캠핑후레쉬 손전등</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0004049269&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>LED 9구 손전등 후레쉬 캠핑 낚시 등산 써치 라이트</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0004050141&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>USB LED 숏 라이트 플래시 손전등 보조배터리필요</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0004421379&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>잉크미디어</t>
+  </si>
+  <si>
+    <t>초고휘도 LED 손전등 5W + 받침대 세트</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0004099874&amp;depth=1&amp;search_text=%EC%86%90%EC%A0%84%EB%93%B1</t>
+  </si>
+  <si>
+    <t>고휘도 LED 4구 손전등 1인용</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0001426425&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>[21LED]자외선 손전등</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0002942790&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>터치램프(접촉식손전등) 만들기</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0001426792&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>LED손전등</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0001435900&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>초고휘도LED손전등 1구 - 5w</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0004099875&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>손전등</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0003722313&amp;depth=1&amp;search_text=%EC%86%90%EC%A0%84%EB%93%B1</t>
+  </si>
+  <si>
+    <t>LED 9구 야광손전등</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0001429845&amp;depth=1&amp;search_text=%EC%86%90%EC%A0%84%EB%93%B1</t>
+  </si>
+  <si>
+    <t>울트라 고휘도 목걸이 손전등</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0001429414&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>LED 손전등로봇 (색상랜덤)</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0001435419&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>자가발전 손전등</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0001427779&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>자가발전 3구 손전등</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0001434551&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>반사경 고휘도 LED 손전등</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0001434031&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>자가발전 돼지코 손전등 (완제품)</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0004578336&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>우신 4모드 96루멘 25H 토러스 헤드랜턴 WS-25H 손전등 LED 라이트 후레쉬 캠핑 등산 산악 낚시 텐트 안전등 오래가는 후래쉬</t>
+  </si>
+  <si>
+    <t>스포키몰</t>
+  </si>
+  <si>
+    <t>우신 21구 LED 라이트 WS-003 후레쉬 손전등 랜턴 LED 라이트 캠핑 등산 산악 낚시 텐트 안전등 오래가는 후래쉬</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0000298236&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>우신 V5 LED 자전거 후미등 WS-504 손전등 랜턴 LED 라이트 후레쉬 캠핑 등산 산악 낚시 텐트 안전등 오래가는 후래쉬</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0000318446&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>우신 13구 다용도 손전등 WS-0350 랜턴 LED 라이트 후레쉬 캠핑 등산 산악 낚시 텐트 안전등 오래가는 후래쉬</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0000298229&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>우신 1와트 하이빔 라이트 WS-005 손전등 랜턴 LED 후레쉬 캠핑 등산 산악 낚시 텐트 안전등 오래가는 후래쉬</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0000298234&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>우신 LED 컴팩트 줌 라이트 WS-012 손전등 랜턴 LED 라이트 후레쉬 캠핑 등산 산악 낚시 텐트 안전등 오래가는 후래쉬</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0000318435&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>에디슨 다용도 LED 손전등</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0000104981&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>우신 미니 줌 라이트 WS-011 손전등 랜턴 LED 후레쉬 캠핑 등산 산악 낚시 텐트 안전등 오래가는 후래쉬</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0000318389&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>우신 14구 LED 라이트 WS-002 손전등 랜턴 후레쉬 캠핑 등산 산악 낚시 텐트 안전등 오래가는 후래쉬</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0000298232&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>우신 마이크로 1와트 키고리 라이트 WS-725 손전등 랜턴 LED 라이트 후레쉬 캠핑 등산 산악 낚시 텐트 안전등 오래가는 후래쉬</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0000318378&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>우신 9구 다용도 미니랜턴 WS-0138 손전등 랜턴 LED 라이트 후레쉬 캠핑 등산 산악 낚시 텐트 안전등 오래가는 후래쉬</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0000318368&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>우신 9구 LED 라이트 WS-001 손전등 랜턴 LED 라이트 후레쉬 캠핑 등산 산악 낚시 텐트 안전등 오래가는 후래쉬</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0000318372&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>우신 컴팩트 LED WS-0428 손전등 랜턴 LED 라이트 후</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0000318426&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>우신 5구 파워빔 WS-473B 손전등 랜턴 LED 라이트 후레쉬 캠핑 등산 산악 낚시 텐트 안전등 오래가는 후래쉬</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0000317877&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>우신 LED 실리콘 경량 7구 자전거 안전등 WS-511 손전등 랜턴 LED 라이트 후레쉬 캠핑 등산 산악 낚시 텐트 안전등 오래가는 후래쉬</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0000318456&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>우신 LED 실리콘 경량 2구 자전거 안전등 WS-513 손전등 랜턴 LED 라이트 후레쉬 캠핑 등산 산악 낚시 텐트 안전등 오래가는 후래쉬</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0000318457&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>우신 포켓 초소형 슬림 라이트 WS-0343 손전등 랜턴 L</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0000318432&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>우신 5구 LED 후미등 일자형 WS-501 랜턴 LED 라이트 후레쉬 손전등 캠핑 등산 산악 낚시 텐트 안전등 오래가는 후래쉬</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0000318447&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>우신 동글이 후미등 WS-502 손전등 랜턴 LED 라이트 후레쉬 캠핑 등산 산악 낚시 텐트 안전등 오래가는 후래쉬</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0000318449&amp;depth=1&amp;search_text=%EC%86%90%EC%A0%84%EB%93%B1</t>
+  </si>
+  <si>
+    <t>교과서에 나오는 LED 손전등(5W) - 31828</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0000724283&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>사이언스119</t>
+  </si>
+  <si>
+    <t>LED손전등로봇(1개)/전도성테이프 - 33679</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0000869411&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>자가발전손전등 - 7236</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0000725499&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>야외용 LED 줌 후레쉬/등산 낚시 캠핑용 랜턴 손전등</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005231239&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>하이파워 카라비너 손전등 2p세트 LED 캠핑용 후레쉬</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005275007&amp;depth=1&amp;search_text=%EC%86%90%EC%A0%84%EB%93%B1</t>
+  </si>
+  <si>
+    <t>하이파워 카라비너 손전등 2p세트 COB 등산후레쉬</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005275008&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>하이파워 카라비너 손전등 2p세트 COB LED 미니후레쉬</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005275003&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>LED 포켓 열쇠고리 후레쉬/손전등 미니 랜턴</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0003565618&amp;depth=1&amp;search_text=%EC%86%90%EC%A0%84%EB%93%B1</t>
+  </si>
+  <si>
+    <t>하이파워 카라비너 손전등 LED 등산 열쇠고리 후레쉬</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005275006&amp;depth=1&amp;search_text=%EC%86%90%EC%A0%84%EB%93%B1</t>
+  </si>
+  <si>
+    <t>하이파워 카라비너 손전등 COB 등산 캠핑 미니후레쉬</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005275009&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>열쇠고리 스트랩 LED 후레쉬(블루) 휴대용 미니손전등</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005231260&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>휴대용 라이트 LED 후레쉬(블랙) / 미니손전등</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0003731809&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>LED 라이트 휴대용 후레쉬(블루) /슬림 미니손전등</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0003982266&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>LED 비상용 손전등 / 무전원 자가발전후레쉬</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0003982268&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>LED 자가발전 비상용 손전등 / 캠핑 가정용후레쉬</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0003982142&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t xml:space="preserve">파워킹 COB LED 카라비너 랜턴 캠핑용품 미니손전등 </t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005275010&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>고휘도 휴대용 LED 후레쉬(블랙) / 포켓 손전등</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0003731811&amp;depth=1&amp;search_text=%EC%86%90%EC%A0%84%EB%93%B1</t>
+  </si>
+  <si>
+    <t>9구 LED 후레쉬/백배킹 캠핑용 인쇄판촉 손전등</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005231233&amp;depth=1&amp;search_text=%EC%86%90%EC%A0%84%EB%93%B1</t>
+  </si>
+  <si>
+    <t>고래 손전등 열쇠고리 / 고래사운드 미니 가방고리</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0003565589&amp;depth=1&amp;search_text=%EC%86%90%EC%A0%84%EB%93%B1</t>
+  </si>
+  <si>
+    <t>2구 복돼지 자가발전 후레쉬/캠핑용 인쇄판촉 손전등</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005231232&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>파워온 LED 클립형 손전등(블랙) / 휴대용 후레쉬</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0003954042&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>파워온 LED 손전등(블랙) / 휴대용 후레쉬</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0003954043&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>카라비너 LED 후레쉬(블루) / 휴대용 손전등</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0003731805&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>카라비너 LED 후레쉬(블랙)/ 휴대용 미니손전등</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0003731803&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>라이턴 컬러 후레쉬/후래쉬 손전등 랜턴 라이트</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005231243&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>터치램프(손전등)_0075</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0003334892&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>레드포인트</t>
+  </si>
+  <si>
+    <t>[z]터치램프(손전등)_0075</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0002970441&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>미니 손전등(5개입)</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0003335624&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>Iain Sinclair 카드형 미니 LED 손전등</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0000487143&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>(8122700) 파워온 LED 클립형 손전등 (블랙)</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0003376937&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>네모커머스</t>
+  </si>
+  <si>
+    <t>9LED 손전등 9구/후레쉬 캠핑랜턴 써치라이트 램프</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0000294263&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>9LED 손전등 9구</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0000263029&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>ABM 손전등 LED자외선램프</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0004204631&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>LED 다목적 랜턴 손전등 캠핑등 무드등</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0004415070&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>(주)비케이엘</t>
+  </si>
+  <si>
+    <t xml:space="preserve">우신벨로프 3와트 LED 써치 라이트 캠핑 해루질 랜턴 손전등 후레쉬 WS-006 </t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005179465&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>우신벨로프 손목밴드형 라이트 후레쉬 해루질 캠핑 낚시 레저 랜턴 손전등</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005179537&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>휴대용 가정용 손전등 캠핑 에너자이저 등산 캠핑등 LED 글램핑 캠핑용 후레쉬 랜턴 감성 불빛 낚시</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0004687342&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>우신벨로프 울트라 Q3 미니줌 후레쉬 써치 라이트 손전등 WS-013</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005179524&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>우신벨로프 21구 LED 써치 라이트 후레쉬 랜턴 손전등 WS-003</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005179447&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>우신벨로프 13구 LED 캠핑 랜턴 손전등 후레쉬 써치 라이트 WS-0350</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005179736&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>우신벨로프 1와트 LED 라이트 캠핑 해루질 랜턴 손전등 후레쉬 써치 라이트 WS-005</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005179763&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>우신벨로프14구 LED 라이트 캠핑 랜턴 손전등 후레쉬 써치 라이트 WS-002</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005179754&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t xml:space="preserve">우신벨로프 컴팩트 LED 써치 후레쉬 라이트 손전등 WS-0428 </t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005179510&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>우신벨로프 마이크로 1와트 키고리 써치 라이트 후레쉬 랜턴 손전등 WS-725</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005179489&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>우신벨로프 7구 캠핑등 캠핑 낚시 랜턴 손전등 후레쉬 라이트 WS-0459</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005180219&amp;depth=1&amp;search_text=손전등</t>
+  </si>
+  <si>
+    <t>등산 지팡이 일자형 등산스틱 등산장비 트레킹 산행</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0004049242&amp;depth=1&amp;search_text=%EB%93%B1%EC%82%B0%EC%8A%A4%ED%8B%B1</t>
+  </si>
+  <si>
+    <t>등산 스틱 트레킹폴 엑스포트 슬림형 E-1S 실버</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0003301775&amp;depth=1&amp;search_text=등산스틱</t>
+  </si>
+  <si>
+    <t>사바나</t>
+  </si>
+  <si>
+    <t>등산지팡이 일자(색상랜덤)</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0004439284&amp;depth=1&amp;search_text=%EB%93%B1%EC%82%B0%EC%8A%A4%ED%8B%B1</t>
+  </si>
+  <si>
+    <t>등산지팡이 T자(색상랜덤)</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0004439283&amp;depth=1&amp;search_text=등산스틱</t>
+  </si>
+  <si>
+    <t>튜맨 D형 락 카라비너 8P TMC-061</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0004415042&amp;depth=1&amp;search_text=카라비너</t>
+  </si>
+  <si>
+    <t>토토비즈</t>
+  </si>
+  <si>
+    <t>튜맨 하드케이스 카라비너 5cm 12P TMC-102</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005251539&amp;depth=1&amp;search_text=카라비너</t>
+  </si>
+  <si>
+    <t>튜맨 하드케이스 카라비너 7cm 12P TMC-101</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005251540&amp;depth=1&amp;search_text=카라비너</t>
+  </si>
+  <si>
+    <t>튜맨 카라비너 5P TMC-023</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0004241924&amp;depth=1&amp;search_text=카라비너</t>
+  </si>
+  <si>
+    <t>튜맨 카라비너 3P TMC-022</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0004241925&amp;depth=1&amp;search_text=카라비너</t>
+  </si>
+  <si>
+    <t>[WOOSHIN VELLOF] 우신벨로프 WS-K07 벨로프 카라비너 나이프(대)/ 아웃도어툴</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0001408270&amp;depth=1&amp;search_text=카라비너</t>
+  </si>
+  <si>
+    <t>체인 후크 카라비너 훅 고리 캠핑 후크 등산 클립</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0004825060&amp;depth=1&amp;search_text=카라비너</t>
+  </si>
+  <si>
+    <t>나카바야시 VEX-114 카라비너 연결 후크 고리 원터치</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005262094&amp;depth=1&amp;search_text=%EC%B9%B4%EB%9D%BC%EB%B9%84%EB%84%88</t>
+  </si>
+  <si>
+    <t>이스타샵</t>
+  </si>
+  <si>
+    <t>나카바야시 MCB-15 밀리터리 카라비너 스트랩 원터치</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005249788&amp;depth=1&amp;search_text=카라비너</t>
+  </si>
+  <si>
+    <t>나카바야시 VEX-152 카라비너 연결 후크 고리 원터치</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005267114&amp;depth=1&amp;search_text=카라비너</t>
+  </si>
+  <si>
+    <t>나카바야시 VEX-153 카라비너 연결 후크 고리 원터치</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005267116&amp;depth=1&amp;search_text=카라비너</t>
+  </si>
+  <si>
+    <t>나카바야시 VEX-113 카라비너 연결 후크 고리 원터치</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005262097&amp;depth=1&amp;search_text=카라비너</t>
+  </si>
+  <si>
+    <t>나카바야시 VEX-154 카라비너 연결 후크 고리 원터치</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005267117&amp;depth=1&amp;search_text=카라비너</t>
+  </si>
+  <si>
+    <t>나카바야시 VEX-131 카라비너 연결 후크 고리 원터치</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005266432&amp;depth=1&amp;search_text=카라비너</t>
+  </si>
+  <si>
+    <t>나카바야시 MCB-07 밀리터리 카라비너 원터치 경량</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005249740&amp;depth=1&amp;search_text=카라비너</t>
+  </si>
+  <si>
+    <t xml:space="preserve">나카바야시 MCB-08 밀리터리 카라비너 원터치 경량 </t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005249739&amp;depth=1&amp;search_text=카라비너</t>
+  </si>
+  <si>
+    <t xml:space="preserve">나카바야시 VEX-146 카라비너 연결 후크 고리 원터치 </t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005267112&amp;depth=1&amp;search_text=카라비너</t>
+  </si>
+  <si>
+    <t>나카바야시 VEX-145 카라비너 연결 후크 고리 원터치</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005267110&amp;depth=1&amp;search_text=카라비너</t>
+  </si>
+  <si>
+    <t>나카바야시 MCB-09 밀리터리 카라비너 원터치 경량</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005249738&amp;depth=1&amp;search_text=카라비너</t>
+  </si>
+  <si>
+    <t xml:space="preserve">나카바야시 VEX-144 카라비너 연결 후크 고리 원터치 </t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005267109&amp;depth=1&amp;search_text=카라비너</t>
+  </si>
+  <si>
+    <t xml:space="preserve">나카바야시 VEX-126 카라비너 연결 후크 고리 원터치 </t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005266435&amp;depth=1&amp;search_text=카라비너</t>
+  </si>
+  <si>
+    <t xml:space="preserve">나카바야시 VEX-125 카라비너 연결 후크 고리 원터치 </t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005266437&amp;depth=1&amp;search_text=카라비너</t>
+  </si>
+  <si>
+    <t xml:space="preserve">나카바야시 VEX-141 카라비너 연결 후크 고리 원터치 </t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005266417&amp;depth=1&amp;search_text=카라비너</t>
+  </si>
+  <si>
+    <t xml:space="preserve">나카바야시 VEX-121 카라비너 연결 후크 고리 원터치 </t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005262085&amp;depth=1&amp;search_text=카라비너</t>
+  </si>
+  <si>
+    <t xml:space="preserve">나카바야시 VEX-142 카라비너 연결 후크 고리 원터치 </t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005266415&amp;depth=1&amp;search_text=카라비너</t>
+  </si>
+  <si>
+    <t xml:space="preserve">나카바야시 VEX-143 카라비너 연결 후크 고리 원터치 </t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005266413&amp;depth=1&amp;search_text=카라비너</t>
+  </si>
+  <si>
+    <t xml:space="preserve">나카바야시 VEX-124 카라비너 연결 후크 고리 원터치 </t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005262079&amp;depth=1&amp;search_text=카라비너</t>
+  </si>
+  <si>
+    <t>나카바야시 VEX-123 카라비너 연결 후크 고리 원터치</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005262082&amp;depth=1&amp;search_text=카라비너</t>
+  </si>
+  <si>
+    <t xml:space="preserve">나카바야시 VEX-122 카라비너 연결 후크 고리 원터치 </t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005262083&amp;depth=1&amp;search_text=카라비너</t>
+  </si>
+  <si>
+    <t xml:space="preserve">나카바야시 VEX-151 카라비너 연결 후크 고리 원터치 </t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005267113&amp;depth=1&amp;search_text=카라비너</t>
+  </si>
+  <si>
+    <t xml:space="preserve">나카바야시 MCB-14 밀리터리 카라비너 스트랩 원터치 </t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005249731&amp;depth=1&amp;search_text=카라비너</t>
+  </si>
+  <si>
+    <t>545</t>
+  </si>
+  <si>
+    <t>LED 걸이형 미니 렌턴/야외취침 백배킹 캠핑렌턴</t>
+  </si>
+  <si>
+    <t>0003553482</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0003553482&amp;depth=1&amp;search_text=렌턴</t>
+  </si>
+  <si>
+    <t>6120</t>
+  </si>
+  <si>
+    <t>546</t>
+  </si>
+  <si>
+    <t>헬멧용고글(디스트로용, 피스타용)</t>
+  </si>
+  <si>
+    <t>0004490113</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0004490113&amp;depth=1&amp;search_text=헬멧</t>
+  </si>
+  <si>
+    <t>8900</t>
+  </si>
+  <si>
+    <t>이지스 자전거용품</t>
+  </si>
+  <si>
+    <t>안전모</t>
+  </si>
+  <si>
+    <t>0001433097</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0001433097&amp;depth=1&amp;search_text=안전모</t>
+  </si>
+  <si>
+    <t>8800</t>
+  </si>
+  <si>
+    <t>안전모 투구형 자동 황색 인쇄무 NAVI</t>
+  </si>
+  <si>
+    <t>0004133115</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0004133115&amp;depth=1&amp;search_text=안전모</t>
+  </si>
+  <si>
+    <t>5700</t>
+  </si>
+  <si>
+    <t>안전모 투구형 자동 흰색 인쇄무 NAVI</t>
+  </si>
+  <si>
+    <t>0004133120</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0004133120&amp;depth=1&amp;search_text=안전모</t>
+  </si>
+  <si>
+    <t>안전모 투구형 자동 적색 인쇄무 NAVI</t>
+  </si>
+  <si>
+    <t>0004133116</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0004133116&amp;depth=1&amp;search_text=안전모</t>
+  </si>
+  <si>
+    <t>투명창 투구형 안전모 자동ABE종 713호 TOP/diy공구/목공구/충전드릴/공구함/콤프레샤/고압세척기/안전용품/모든것~</t>
+  </si>
+  <si>
+    <t>0000376612</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0000376612&amp;depth=1&amp;search_text=안전모</t>
+  </si>
+  <si>
+    <t>7220</t>
+  </si>
+  <si>
+    <t>MP형 안전모 자동홈ABE종 694호 TOP/에스탑/diy공구/목공구/충전드릴/공구함/콤프레샤/고압세척기/안전용품/모든것~</t>
+  </si>
+  <si>
+    <t>0000376621</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0000376621&amp;depth=1&amp;search_text=안전모</t>
+  </si>
+  <si>
+    <t>5750</t>
+  </si>
+  <si>
+    <t>경작업용 안전모 TOP/에스탑/공구쇼핑몰/안/diy공구/목공구/충전드릴/공구함/콤프레샤/고압세척기/안전용품/모든것~</t>
+  </si>
+  <si>
+    <t>0000376622</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0000376622&amp;depth=1&amp;search_text=안전모</t>
+  </si>
+  <si>
+    <t>5520</t>
+  </si>
+  <si>
+    <t>MP형 안전모 자동ABE종 814호 TOP/에스탑//diy공구/목공구/충전드릴/공구함/콤프레샤/고압세척기/안전용품/모든것~</t>
+  </si>
+  <si>
+    <t>0000376623</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0000376623&amp;depth=1&amp;search_text=안전모</t>
+  </si>
+  <si>
+    <t>548</t>
+  </si>
+  <si>
+    <t>[페인트인포] 디자인로프(실버)</t>
+  </si>
+  <si>
+    <t>0000095111</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0000095111&amp;depth=1&amp;search_text=로프</t>
+  </si>
+  <si>
+    <t>페인트인포</t>
+  </si>
+  <si>
+    <t>[페인트인포] 디자인로프(레드&amp;골드)</t>
+  </si>
+  <si>
+    <t>0000095112</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0000095112&amp;depth=1&amp;search_text=로프</t>
+  </si>
+  <si>
+    <t>[페인트인포] 디자인로프(그린&amp;골드)</t>
+  </si>
+  <si>
+    <t>0000095114</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0000095114&amp;depth=1&amp;search_text=로프</t>
+  </si>
+  <si>
+    <t>[페인트인포] 디자인로프(옐로우&amp;골드)</t>
+  </si>
+  <si>
+    <t>0000095116</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0000095116&amp;depth=1&amp;search_text=로프</t>
+  </si>
+  <si>
+    <t>[페인트인포] 미니로프(그린&amp;골드)</t>
+  </si>
+  <si>
+    <t>0000095120</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0000095120&amp;depth=1&amp;search_text=로프</t>
+  </si>
+  <si>
+    <t>[페인트인포] 미니로프(자주&amp;골드)</t>
+  </si>
+  <si>
+    <t>0000095117</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0000095117&amp;depth=1&amp;search_text=로프</t>
+  </si>
+  <si>
+    <t>멀티 다용도 로프 15mm</t>
+  </si>
+  <si>
+    <t>0004833316</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0004833316&amp;depth=1&amp;search_text=로프</t>
+  </si>
+  <si>
+    <t>다용도 만능 로프</t>
+  </si>
+  <si>
+    <t>0004049258</t>
+  </si>
+  <si>
+    <t>2900</t>
+  </si>
+  <si>
+    <t>553</t>
+  </si>
+  <si>
+    <t>싸파 다잡아 스푼 루어 골드 32g 메탈루어 배스낚시</t>
+  </si>
+  <si>
+    <t>0004705751</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0004705751&amp;depth=1&amp;search_text=루어</t>
+  </si>
+  <si>
+    <t>주연스포츠</t>
+  </si>
+  <si>
+    <t>싸파 다잡아 스푼 루어 골드 15g 메탈루어 배스낚시</t>
+  </si>
+  <si>
+    <t>0004705755</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0004705755&amp;depth=1&amp;search_text=루어</t>
+  </si>
+  <si>
+    <t>싸파 다잡아 스푼 루어 골드 22g 메탈루어 배스낚시</t>
+  </si>
+  <si>
+    <t>0004705753</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0004705753&amp;depth=1&amp;search_text=루어</t>
+  </si>
+  <si>
+    <t>싸파 다잡아 스푼 루어 골드 18g 메탈루어 배스낚시</t>
+  </si>
+  <si>
+    <t>0004705754</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0004705754&amp;depth=1&amp;search_text=루어</t>
+  </si>
+  <si>
+    <t>싸파 다잡아 스푼 루어 골드 26g 메탈루어 배스낚시</t>
+  </si>
+  <si>
+    <t>0004705752</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0004705752&amp;depth=1&amp;search_text=루어</t>
+  </si>
+  <si>
+    <t>싸파 다잡아 스푼 루어 실버 15g 메탈루어 배스낚시</t>
+  </si>
+  <si>
+    <t>0004705763</t>
+  </si>
+  <si>
+    <t>싸파 다잡아 스푼 루어 골드 12g 메탈루어 배스낚시</t>
+  </si>
+  <si>
+    <t>0004705756</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0004705756&amp;depth=1&amp;search_text=루어</t>
+  </si>
+  <si>
+    <t>싸파 다잡아 스푼 루어 실버 9g 메탈루어 배스낚시</t>
+  </si>
+  <si>
+    <t>0004705765</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0004705765&amp;depth=1&amp;search_text=루어</t>
+  </si>
+  <si>
+    <t>싸파 더블킬 CATKIN 웜 SFT-ACW06 미끼 루어 웜 낚시</t>
+  </si>
+  <si>
+    <t>0004617934</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0004617934&amp;depth=1&amp;search_text=루어</t>
+  </si>
+  <si>
+    <t>554</t>
+  </si>
+  <si>
+    <t>금양 무게 중심추 멀티 연결캡 원투낚시 삼각받침대</t>
+  </si>
+  <si>
+    <t>0005215618</t>
+  </si>
+  <si>
+    <t>10930</t>
+  </si>
+  <si>
+    <t>레저킹</t>
+  </si>
+  <si>
+    <t>국산 나노피싱 나노추 오링홀더 낚시용품</t>
+  </si>
+  <si>
+    <t>0004383305</t>
+  </si>
+  <si>
+    <t>4600</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005215618&amp;depth=1&amp;search_text=낚시 추</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0004705763&amp;depth=1&amp;search_text=루어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0004049258&amp;depth=1&amp;search_text=로프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0004383305&amp;depth=1&amp;search_text=낚시 추</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003731582</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003731578</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003731580</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003731581</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003731579</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003731583</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003258724</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003258723</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003258705</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003731576</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003258695</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003258687</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005308782</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003652374</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003652373</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003250671</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0004806799</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0004806806</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0004806805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0004806803</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0004806801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005269556</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001875009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005269554</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001875012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001333404</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001335256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001335316</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001335291</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001335516</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001335468</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0004050141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0004049269</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003890535</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0004421379</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0004099874</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001426425</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001426792</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0002942790</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001435900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0004099875</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003722313</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001429845</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001429414</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001435419</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001434551</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001427779</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001434031</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0004578336</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0000310201&amp;depth=1&amp;search_text=손전등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000310201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000298236</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000318446</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000298229</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000298234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000318435</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000104981</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000298232</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000318389</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000318368</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000318378</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000318372</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000318426</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000317877</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000318456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000318432</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000318457</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000318447</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000318449</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000724283</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000869411</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000725499</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005231239</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005275007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005275008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005275003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003565618</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005275006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005275009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005231260</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003731809</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003982266</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003982142</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003982268</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005275010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003731811</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005231233</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005231232</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003565589</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003954042</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003954043</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003731805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003731803</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005231243</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003334892</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0002970441</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003335624</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000487143</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000294263</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003376937</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000263029</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0004415070</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0004204631</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005179465</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005179537</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0004687342</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005179447</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005179524</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005179736</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005179754</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005179763</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005179510</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005179489</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0004049242</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005180219</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003301775</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0004439284</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0004439283</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0004415042</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005251540</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005251539</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0004241925</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0004241924</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001408270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0004825060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005262094</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005249788</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005267114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005267116</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005262097</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005267117</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005266432</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005249740</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005249739</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005267112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005267110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005249738</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005267109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005266435</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005266437</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005266417</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005262085</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005266415</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005266413</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005262082</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005262079</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005262083</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005249731</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005267113</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>559</t>
+  </si>
+  <si>
+    <t>악력기 운동 기구 카운팅 악력기 손가락 운동 악력기A</t>
+  </si>
+  <si>
+    <t>0005180794</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005180794&amp;depth=1&amp;search_text=악력기</t>
+  </si>
+  <si>
+    <t>근력강화 손가락 악력기</t>
+  </si>
+  <si>
+    <t>0005180586</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005180586&amp;depth=1&amp;search_text=악력기</t>
+  </si>
+  <si>
+    <t>악력기 운동 기구 카운팅 악력기 손가락 운동 악력기</t>
+  </si>
+  <si>
+    <t>0005180795</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005180795&amp;depth=1&amp;search_text=악력기</t>
+  </si>
+  <si>
+    <t>스타 완력기 고정핀 악력기 헬스 운동기구 부속품</t>
+  </si>
+  <si>
+    <t>0005180694</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005180694&amp;depth=1&amp;search_text=악력기</t>
+  </si>
+  <si>
+    <t>카운트 악력기</t>
+  </si>
+  <si>
+    <t>0003572449</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0003572449&amp;depth=1&amp;search_text=악력기</t>
+  </si>
+  <si>
+    <t>4700</t>
+  </si>
+  <si>
+    <t>카운트악력기(보급형 베스타)</t>
+  </si>
+  <si>
+    <t>0003832099</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0003832099&amp;depth=1&amp;search_text=악력기</t>
+  </si>
+  <si>
+    <t>GD 휴대용 악력기 N</t>
+  </si>
+  <si>
+    <t>0004135505</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0004135505&amp;depth=1&amp;search_text=악력기</t>
+  </si>
+  <si>
+    <t>GD GRIP 8~24kg 조절 악력기 휴대용 초보자 고급형</t>
+  </si>
+  <si>
+    <t>0003922849</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0003922849&amp;depth=1&amp;search_text=악력기</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>3단강약조절 GD 그립2 악력기</t>
+  </si>
+  <si>
+    <t>0000105348</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0000105348&amp;depth=1&amp;search_text=악력기</t>
+  </si>
+  <si>
+    <t>수셈 악력기(카운터 그립)</t>
+  </si>
+  <si>
+    <t>0000105993</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0000105993&amp;depth=1&amp;search_text=악력기</t>
+  </si>
+  <si>
+    <t>5800</t>
+  </si>
+  <si>
+    <t>GD GRIP 피아노악력기</t>
+  </si>
+  <si>
+    <t>0000105311</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0000105311&amp;depth=1&amp;search_text=악력기</t>
+  </si>
+  <si>
+    <t>561</t>
+  </si>
+  <si>
+    <t>[S]쥬쥬 수경</t>
+  </si>
+  <si>
+    <t>0001785240</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0001785240&amp;depth=1&amp;search_text=수경</t>
+  </si>
+  <si>
+    <t>아라칸 수경 801-랜덤</t>
+  </si>
+  <si>
+    <t>0005285928</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005285928&amp;depth=1&amp;search_text=수경</t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
+  <si>
+    <t>[디코랜드] 미니언즈 고글수경</t>
+  </si>
+  <si>
+    <t>0003157093</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0003157093&amp;depth=1&amp;search_text=수경</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9020 </t>
+  </si>
+  <si>
+    <t>월드컵토이</t>
+  </si>
+  <si>
+    <t>[디코랜드] 디즈니 미키마우스 고글수경</t>
+  </si>
+  <si>
+    <t>0003157087</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0003157087&amp;depth=1&amp;search_text=수경</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8280 </t>
+  </si>
+  <si>
+    <t>[디코랜드] 구데타마 안티포그 수경</t>
+  </si>
+  <si>
+    <t>0001824751</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0001824751&amp;depth=1&amp;search_text=수경</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6720 </t>
+  </si>
+  <si>
+    <t>터닝메카드W 아동 수경 물안경</t>
+  </si>
+  <si>
+    <t>0005229342</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005229342&amp;depth=1&amp;search_text=수경</t>
+  </si>
+  <si>
+    <t>라바 아동 수경 물안경(오렌지)</t>
+  </si>
+  <si>
+    <t>0005229345</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0005229345&amp;depth=1&amp;search_text=수경</t>
+  </si>
+  <si>
+    <t>7400</t>
+  </si>
+  <si>
+    <t>0003839341</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0003839341&amp;depth=1&amp;search_text=수경</t>
+  </si>
+  <si>
+    <t>7600</t>
+  </si>
+  <si>
+    <t>오도넬 수경 ODO-4100 파랑 물안경 수영용품 물놀이</t>
+  </si>
+  <si>
+    <t>0003839510</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0003839510&amp;depth=1&amp;search_text=수경</t>
+  </si>
+  <si>
+    <t>오도넬 수경 ODO-4100 분홍 물안경 수영용품 물놀이</t>
+  </si>
+  <si>
+    <t>0003839438</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0003839438&amp;depth=1&amp;search_text=수경</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0003731582&amp;depth=1&amp;search_text=안경 케이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0003731578&amp;depth=1&amp;search_text=%EC%95%88%EA%B2%BD%20%EC%BC%80%EC%9D%B4%EC%8A%A4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오도넬 수경 ODO-4100 검정 물안경 수영용품 물놀이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성인용 잠수경/물놀이용품 스노쿨링 수경 물안경 잠수</t>
+  </si>
+  <si>
+    <t>0003223452</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0003223452&amp;depth=1&amp;search_text=수경</t>
+  </si>
+  <si>
+    <t>9500</t>
+  </si>
+  <si>
+    <t>(위니코니) 엉덩이탐정 수경</t>
+  </si>
+  <si>
+    <t>0003761191</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0003761191&amp;depth=1&amp;search_text=수경</t>
+  </si>
+  <si>
+    <t>10950</t>
   </si>
   <si>
     <t>담기완료</t>
@@ -11596,7 +13671,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="6" formatCode="&quot;₩&quot;#,##0;[Red]\-&quot;₩&quot;#,##0"/>
     <numFmt numFmtId="176" formatCode="000"/>
     <numFmt numFmtId="177" formatCode="&quot;₩&quot;#,##0"/>
     <numFmt numFmtId="178" formatCode="0000000000"/>
@@ -11850,7 +13926,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11961,9 +14037,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -11973,13 +14046,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
     <cellStyle name="하이퍼링크 2" xfId="1" xr:uid="{F37C59CC-9D4A-4F93-B1DA-6205B39BDB13}"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="13">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -12067,26 +14149,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12440,27 +14502,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B35123C1-8297-4A82-8257-74927FD20B55}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O191" sqref="O191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.796875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.09765625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="49.296875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.09765625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.5" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="68.59765625" collapsed="true"/>
-    <col min="7" max="7" width="8.796875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="26.5" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.09765625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.5" collapsed="true"/>
+    <col min="1" max="1" width="8.796875" collapsed="1"/>
+    <col min="2" max="2" width="11.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="49.296875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.09765625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="68.59765625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8.796875" collapsed="1"/>
+    <col min="8" max="8" width="26.5" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.09765625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12492,312 +14554,6479 @@
         <v>3789</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>3509</v>
+      <c r="B2" s="3">
+        <v>534</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>858</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3525</v>
+        <v>3810</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>4222</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>3526</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>3447</v>
-      </c>
+      <c r="F2" s="45" t="s">
+        <v>4445</v>
+      </c>
+      <c r="G2" s="44">
+        <v>4520</v>
+      </c>
+      <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" t="s">
-        <v>3816</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>3509</v>
+      <c r="B3" s="3">
+        <v>534</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>856</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>3527</v>
+        <v>3811</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>4223</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>857</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>3447</v>
-      </c>
+      <c r="F3" s="45" t="s">
+        <v>4446</v>
+      </c>
+      <c r="G3" s="44">
+        <v>3850</v>
+      </c>
+      <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
-        <v>3448</v>
+        <v>20</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" t="s">
-        <v>3816</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>3796</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3798</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>3799</v>
-      </c>
-      <c r="G4" t="s">
-        <v>3629</v>
-      </c>
-      <c r="H4" t="s">
-        <v>3447</v>
-      </c>
-      <c r="I4" t="s">
-        <v>3800</v>
+      <c r="B4" s="3">
+        <v>534</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3812</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>4224</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>3813</v>
+      </c>
+      <c r="G4" s="44">
+        <v>3850</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K4" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>3509</v>
+      <c r="B5" s="3">
+        <v>534</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>854</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>3528</v>
+        <v>3814</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>4225</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>855</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>3447</v>
-      </c>
+        <v>3815</v>
+      </c>
+      <c r="G5" s="44">
+        <v>3850</v>
+      </c>
+      <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>3448</v>
+        <v>20</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" t="s">
-        <v>3816</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>3509</v>
+      <c r="B6" s="3">
+        <v>534</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>3534</v>
+        <v>3816</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>4226</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>845</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>3535</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>3447</v>
-      </c>
+        <v>3817</v>
+      </c>
+      <c r="G6" s="44">
+        <v>3850</v>
+      </c>
+      <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" t="s">
-        <v>3816</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>3509</v>
+      <c r="B7" s="3">
+        <v>534</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>826</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>3546</v>
+        <v>3818</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>4227</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="40" t="s">
-        <v>3795</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>3447</v>
-      </c>
+      <c r="F7" s="3" t="s">
+        <v>3819</v>
+      </c>
+      <c r="G7" s="44">
+        <v>3760</v>
+      </c>
+      <c r="H7" s="3"/>
       <c r="I7" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K7" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>3509</v>
+      <c r="B8" s="3">
+        <v>534</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>842</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>3536</v>
+        <v>3820</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>4228</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>843</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3535</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3447</v>
-      </c>
+        <v>3821</v>
+      </c>
+      <c r="G8" s="44">
+        <v>3290</v>
+      </c>
+      <c r="H8" s="3"/>
       <c r="I8" s="3" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" t="s">
-        <v>3816</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>3509</v>
+      <c r="B9" s="3">
+        <v>534</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>840</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>3537</v>
+        <v>3822</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>4229</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>841</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3538</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3447</v>
-      </c>
+        <v>3823</v>
+      </c>
+      <c r="G9" s="44">
+        <v>3290</v>
+      </c>
+      <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" t="s">
-        <v>3816</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>3509</v>
+      <c r="B10" s="3">
+        <v>534</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>838</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>3539</v>
+        <v>3824</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>4231</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>839</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3540</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3447</v>
-      </c>
+        <v>3825</v>
+      </c>
+      <c r="G10" s="44">
+        <v>3080</v>
+      </c>
+      <c r="H10" s="3"/>
       <c r="I10" s="3" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" t="s">
-        <v>3816</v>
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>534</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>3826</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>4230</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>3827</v>
+      </c>
+      <c r="G11" s="44">
+        <v>2320</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>534</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>3828</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>4232</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>3829</v>
+      </c>
+      <c r="G12" s="44">
+        <v>2080</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>534</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>3830</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>4233</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>3831</v>
+      </c>
+      <c r="G13" s="44">
+        <v>1950</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>541</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>3832</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3833</v>
+      </c>
+      <c r="G14" s="44">
+        <v>8900</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3" t="s">
+        <v>3834</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>541</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>3835</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>4235</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3836</v>
+      </c>
+      <c r="G15" s="44">
+        <v>10000</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3" t="s">
+        <v>3837</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>541</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>3838</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>4236</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>3839</v>
+      </c>
+      <c r="G16" s="44">
+        <v>10000</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3" t="s">
+        <v>3837</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>541</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>3840</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>4237</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>3841</v>
+      </c>
+      <c r="G17" s="44">
+        <v>8900</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3" t="s">
+        <v>3837</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>541</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>3842</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>4238</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3843</v>
+      </c>
+      <c r="G18" s="44">
+        <v>8000</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3" t="s">
+        <v>3424</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
+        <v>541</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>3844</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>4239</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>3845</v>
+      </c>
+      <c r="G19" s="44">
+        <v>8000</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3" t="s">
+        <v>3424</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3">
+        <v>541</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>3846</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>4240</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3847</v>
+      </c>
+      <c r="G20" s="44">
+        <v>8000</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3" t="s">
+        <v>3424</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3">
+        <v>541</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>3848</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>4241</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3849</v>
+      </c>
+      <c r="G21" s="44">
+        <v>8000</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3" t="s">
+        <v>3424</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3">
+        <v>541</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>3850</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>4242</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3851</v>
+      </c>
+      <c r="G22" s="44">
+        <v>8000</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3" t="s">
+        <v>3424</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3">
+        <v>541</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>3852</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>4243</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>3853</v>
+      </c>
+      <c r="G23" s="44">
+        <v>360</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3" t="s">
+        <v>3424</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3">
+        <v>541</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>3854</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>4245</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3855</v>
+      </c>
+      <c r="G24" s="44">
+        <v>320</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3" t="s">
+        <v>3424</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3">
+        <v>542</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>3856</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>4244</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>3857</v>
+      </c>
+      <c r="G25" s="44">
+        <v>10500</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3" t="s">
+        <v>3858</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3">
+        <v>542</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>4246</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>3860</v>
+      </c>
+      <c r="G26" s="44">
+        <v>3900</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3" t="s">
+        <v>3858</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3">
+        <v>542</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>3861</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>4247</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>3862</v>
+      </c>
+      <c r="G27" s="44">
+        <v>6850</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3" t="s">
+        <v>3863</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3">
+        <v>542</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>3864</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>4248</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>3865</v>
+      </c>
+      <c r="G28" s="44">
+        <v>6550</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3" t="s">
+        <v>3863</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3">
+        <v>542</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>3866</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>4250</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>3867</v>
+      </c>
+      <c r="G29" s="44">
+        <v>2900</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3" t="s">
+        <v>3863</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3">
+        <v>542</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>3868</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>4249</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>3869</v>
+      </c>
+      <c r="G30" s="44">
+        <v>2900</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3" t="s">
+        <v>3863</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3">
+        <v>542</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>3870</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>4252</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>3871</v>
+      </c>
+      <c r="G31" s="44">
+        <v>2900</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3" t="s">
+        <v>3863</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3">
+        <v>542</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>3872</v>
+      </c>
+      <c r="D32" s="43" t="s">
+        <v>4251</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>3873</v>
+      </c>
+      <c r="G32" s="44">
+        <v>2900</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3" t="s">
+        <v>3863</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3">
+        <v>542</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>3874</v>
+      </c>
+      <c r="D33" s="43" t="s">
+        <v>4255</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>3875</v>
+      </c>
+      <c r="G33" s="44">
+        <v>9700</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="K33" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3">
+        <v>542</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>3876</v>
+      </c>
+      <c r="D34" s="43" t="s">
+        <v>4254</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>3877</v>
+      </c>
+      <c r="G34" s="44">
+        <v>8400</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="K34" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3">
+        <v>542</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>3878</v>
+      </c>
+      <c r="D35" s="43" t="s">
+        <v>4253</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>3879</v>
+      </c>
+      <c r="G35" s="44">
+        <v>3600</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3">
+        <v>542</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>3880</v>
+      </c>
+      <c r="D36" s="43" t="s">
+        <v>4256</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>3881</v>
+      </c>
+      <c r="G36" s="44">
+        <v>7700</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3" t="s">
+        <v>3882</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3">
+        <v>542</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>3883</v>
+      </c>
+      <c r="D37" s="43" t="s">
+        <v>4257</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>3884</v>
+      </c>
+      <c r="G37" s="44">
+        <v>8800</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J37" s="3"/>
+      <c r="K37" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3">
+        <v>542</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>3885</v>
+      </c>
+      <c r="D38" s="43" t="s">
+        <v>4258</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>3886</v>
+      </c>
+      <c r="G38" s="44">
+        <v>7400</v>
+      </c>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J38" s="3"/>
+      <c r="K38" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3">
+        <v>542</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>3887</v>
+      </c>
+      <c r="D39" s="43" t="s">
+        <v>4260</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>3888</v>
+      </c>
+      <c r="G39" s="44">
+        <v>7200</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J39" s="3"/>
+      <c r="K39" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3">
+        <v>542</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>3889</v>
+      </c>
+      <c r="D40" s="43" t="s">
+        <v>4259</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>3890</v>
+      </c>
+      <c r="G40" s="44">
+        <v>6000</v>
+      </c>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J40" s="3"/>
+      <c r="K40" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3">
+        <v>542</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>3891</v>
+      </c>
+      <c r="D41" s="43" t="s">
+        <v>4261</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>3892</v>
+      </c>
+      <c r="G41" s="44">
+        <v>5500</v>
+      </c>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J41" s="3"/>
+      <c r="K41" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3">
+        <v>542</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>3893</v>
+      </c>
+      <c r="D42" s="43" t="s">
+        <v>4262</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3894</v>
+      </c>
+      <c r="G42" s="44">
+        <v>5500</v>
+      </c>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J42" s="3"/>
+      <c r="K42" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3">
+        <v>542</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>3895</v>
+      </c>
+      <c r="D43" s="43" t="s">
+        <v>4263</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3896</v>
+      </c>
+      <c r="G43" s="44">
+        <v>5280</v>
+      </c>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J43" s="3"/>
+      <c r="K43" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3">
+        <v>542</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>3897</v>
+      </c>
+      <c r="D44" s="43" t="s">
+        <v>4264</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>3898</v>
+      </c>
+      <c r="G44" s="44">
+        <v>4500</v>
+      </c>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J44" s="3"/>
+      <c r="K44" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3">
+        <v>542</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>3899</v>
+      </c>
+      <c r="D45" s="43" t="s">
+        <v>4265</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>3900</v>
+      </c>
+      <c r="G45" s="44">
+        <v>3900</v>
+      </c>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J45" s="3"/>
+      <c r="K45" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3">
+        <v>542</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>3901</v>
+      </c>
+      <c r="D46" s="43" t="s">
+        <v>4266</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>3902</v>
+      </c>
+      <c r="G46" s="44">
+        <v>3800</v>
+      </c>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J46" s="3"/>
+      <c r="K46" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3">
+        <v>542</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>3903</v>
+      </c>
+      <c r="D47" s="43" t="s">
+        <v>4268</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3904</v>
+      </c>
+      <c r="G47" s="44">
+        <v>3600</v>
+      </c>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J47" s="3"/>
+      <c r="K47" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3">
+        <v>542</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>3905</v>
+      </c>
+      <c r="D48" s="43" t="s">
+        <v>4267</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>3906</v>
+      </c>
+      <c r="G48" s="44">
+        <v>3500</v>
+      </c>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J48" s="3"/>
+      <c r="K48" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3">
+        <v>542</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>3907</v>
+      </c>
+      <c r="D49" s="43" t="s">
+        <v>4269</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3908</v>
+      </c>
+      <c r="G49" s="44">
+        <v>2900</v>
+      </c>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J49" s="3"/>
+      <c r="K49" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3">
+        <v>542</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>3909</v>
+      </c>
+      <c r="D50" s="43" t="s">
+        <v>4270</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>3910</v>
+      </c>
+      <c r="G50" s="44">
+        <v>2200</v>
+      </c>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J50" s="3"/>
+      <c r="K50" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3">
+        <v>542</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>3911</v>
+      </c>
+      <c r="D51" s="43" t="s">
+        <v>4272</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="45" t="s">
+        <v>4271</v>
+      </c>
+      <c r="G51" s="44">
+        <v>8800</v>
+      </c>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3" t="s">
+        <v>3912</v>
+      </c>
+      <c r="J51" s="3"/>
+      <c r="K51" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3">
+        <v>542</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>3913</v>
+      </c>
+      <c r="D52" s="43" t="s">
+        <v>4273</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3914</v>
+      </c>
+      <c r="G52" s="44">
+        <v>8800</v>
+      </c>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3" t="s">
+        <v>3912</v>
+      </c>
+      <c r="J52" s="3"/>
+      <c r="K52" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3">
+        <v>542</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>3915</v>
+      </c>
+      <c r="D53" s="43" t="s">
+        <v>4274</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>3916</v>
+      </c>
+      <c r="G53" s="44">
+        <v>7900</v>
+      </c>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3" t="s">
+        <v>3912</v>
+      </c>
+      <c r="J53" s="3"/>
+      <c r="K53" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3">
+        <v>542</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>3917</v>
+      </c>
+      <c r="D54" s="43" t="s">
+        <v>4275</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>3918</v>
+      </c>
+      <c r="G54" s="44">
+        <v>7900</v>
+      </c>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3" t="s">
+        <v>3912</v>
+      </c>
+      <c r="J54" s="3"/>
+      <c r="K54" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3">
+        <v>542</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>3919</v>
+      </c>
+      <c r="D55" s="43" t="s">
+        <v>4276</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>3920</v>
+      </c>
+      <c r="G55" s="44">
+        <v>7900</v>
+      </c>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3" t="s">
+        <v>3912</v>
+      </c>
+      <c r="J55" s="3"/>
+      <c r="K55" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A56" s="3">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3">
+        <v>542</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>3921</v>
+      </c>
+      <c r="D56" s="43" t="s">
+        <v>4277</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>3922</v>
+      </c>
+      <c r="G56" s="44">
+        <v>7900</v>
+      </c>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3" t="s">
+        <v>3912</v>
+      </c>
+      <c r="J56" s="3"/>
+      <c r="K56" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A57" s="3">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3">
+        <v>542</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>3923</v>
+      </c>
+      <c r="D57" s="43" t="s">
+        <v>4278</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>3924</v>
+      </c>
+      <c r="G57" s="44">
+        <v>7800</v>
+      </c>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3" t="s">
+        <v>3912</v>
+      </c>
+      <c r="J57" s="3"/>
+      <c r="K57" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A58" s="3">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3">
+        <v>542</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>3925</v>
+      </c>
+      <c r="D58" s="43" t="s">
+        <v>4280</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3926</v>
+      </c>
+      <c r="G58" s="44">
+        <v>6900</v>
+      </c>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3" t="s">
+        <v>3912</v>
+      </c>
+      <c r="J58" s="3"/>
+      <c r="K58" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A59" s="3">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3">
+        <v>542</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>3927</v>
+      </c>
+      <c r="D59" s="43" t="s">
+        <v>4279</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>3928</v>
+      </c>
+      <c r="G59" s="44">
+        <v>6900</v>
+      </c>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3" t="s">
+        <v>3912</v>
+      </c>
+      <c r="J59" s="3"/>
+      <c r="K59" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A60" s="3">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3">
+        <v>542</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>3929</v>
+      </c>
+      <c r="D60" s="43" t="s">
+        <v>4282</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>3930</v>
+      </c>
+      <c r="G60" s="44">
+        <v>5900</v>
+      </c>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3" t="s">
+        <v>3912</v>
+      </c>
+      <c r="J60" s="3"/>
+      <c r="K60" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A61" s="3">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3">
+        <v>542</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>3931</v>
+      </c>
+      <c r="D61" s="43" t="s">
+        <v>4281</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>3932</v>
+      </c>
+      <c r="G61" s="44">
+        <v>5900</v>
+      </c>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3" t="s">
+        <v>3912</v>
+      </c>
+      <c r="J61" s="3"/>
+      <c r="K61" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A62" s="3">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3">
+        <v>542</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>3933</v>
+      </c>
+      <c r="D62" s="43" t="s">
+        <v>4283</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3934</v>
+      </c>
+      <c r="G62" s="44">
+        <v>5900</v>
+      </c>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3" t="s">
+        <v>3912</v>
+      </c>
+      <c r="J62" s="3"/>
+      <c r="K62" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A63" s="3">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3">
+        <v>542</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>3935</v>
+      </c>
+      <c r="D63" s="43" t="s">
+        <v>4284</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>3936</v>
+      </c>
+      <c r="G63" s="44">
+        <v>5900</v>
+      </c>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3" t="s">
+        <v>3912</v>
+      </c>
+      <c r="J63" s="3"/>
+      <c r="K63" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A64" s="3">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3">
+        <v>542</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>3937</v>
+      </c>
+      <c r="D64" s="43" t="s">
+        <v>4285</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>3938</v>
+      </c>
+      <c r="G64" s="44">
+        <v>5900</v>
+      </c>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3" t="s">
+        <v>3912</v>
+      </c>
+      <c r="J64" s="3"/>
+      <c r="K64" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A65" s="3">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3">
+        <v>542</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>3939</v>
+      </c>
+      <c r="D65" s="43" t="s">
+        <v>4286</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>3940</v>
+      </c>
+      <c r="G65" s="44">
+        <v>5900</v>
+      </c>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3" t="s">
+        <v>3912</v>
+      </c>
+      <c r="J65" s="3"/>
+      <c r="K65" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A66" s="3">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3">
+        <v>542</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>3941</v>
+      </c>
+      <c r="D66" s="43" t="s">
+        <v>4288</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>3942</v>
+      </c>
+      <c r="G66" s="44">
+        <v>4900</v>
+      </c>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3" t="s">
+        <v>3912</v>
+      </c>
+      <c r="J66" s="3"/>
+      <c r="K66" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A67" s="3">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3">
+        <v>542</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>3943</v>
+      </c>
+      <c r="D67" s="43" t="s">
+        <v>4287</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>3944</v>
+      </c>
+      <c r="G67" s="44">
+        <v>4900</v>
+      </c>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3" t="s">
+        <v>3912</v>
+      </c>
+      <c r="J67" s="3"/>
+      <c r="K67" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A68" s="3">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3">
+        <v>542</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>3945</v>
+      </c>
+      <c r="D68" s="43" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>3946</v>
+      </c>
+      <c r="G68" s="44">
+        <v>4900</v>
+      </c>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3" t="s">
+        <v>3912</v>
+      </c>
+      <c r="J68" s="3"/>
+      <c r="K68" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A69" s="3">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3">
+        <v>542</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>3947</v>
+      </c>
+      <c r="D69" s="43" t="s">
+        <v>4290</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>3948</v>
+      </c>
+      <c r="G69" s="44">
+        <v>3800</v>
+      </c>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3" t="s">
+        <v>3912</v>
+      </c>
+      <c r="J69" s="3"/>
+      <c r="K69" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A70" s="3">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3">
+        <v>542</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>3949</v>
+      </c>
+      <c r="D70" s="43" t="s">
+        <v>4291</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>3950</v>
+      </c>
+      <c r="G70" s="44">
+        <v>7700</v>
+      </c>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3" t="s">
+        <v>3951</v>
+      </c>
+      <c r="J70" s="3"/>
+      <c r="K70" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A71" s="3">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3">
+        <v>542</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>3952</v>
+      </c>
+      <c r="D71" s="43" t="s">
+        <v>4292</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>3953</v>
+      </c>
+      <c r="G71" s="44">
+        <v>4180</v>
+      </c>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3" t="s">
+        <v>3951</v>
+      </c>
+      <c r="J71" s="3"/>
+      <c r="K71" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A72" s="3">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3">
+        <v>542</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>3954</v>
+      </c>
+      <c r="D72" s="43" t="s">
+        <v>4293</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>3955</v>
+      </c>
+      <c r="G72" s="44">
+        <v>3900</v>
+      </c>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3" t="s">
+        <v>3951</v>
+      </c>
+      <c r="J72" s="3"/>
+      <c r="K72" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A73" s="3">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3">
+        <v>542</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>3956</v>
+      </c>
+      <c r="D73" s="43" t="s">
+        <v>4294</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>3957</v>
+      </c>
+      <c r="G73" s="44">
+        <v>8170</v>
+      </c>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J73" s="3"/>
+      <c r="K73" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A74" s="3">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3">
+        <v>542</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>3958</v>
+      </c>
+      <c r="D74" s="43" t="s">
+        <v>4295</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>3959</v>
+      </c>
+      <c r="G74" s="44">
+        <v>5590</v>
+      </c>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J74" s="3"/>
+      <c r="K74" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A75" s="3">
+        <v>74</v>
+      </c>
+      <c r="B75" s="3">
+        <v>542</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>3960</v>
+      </c>
+      <c r="D75" s="43" t="s">
+        <v>4296</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>3961</v>
+      </c>
+      <c r="G75" s="44">
+        <v>5590</v>
+      </c>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J75" s="3"/>
+      <c r="K75" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A76" s="3">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3">
+        <v>542</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>3962</v>
+      </c>
+      <c r="D76" s="43" t="s">
+        <v>4297</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>3963</v>
+      </c>
+      <c r="G76" s="44">
+        <v>5590</v>
+      </c>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J76" s="3"/>
+      <c r="K76" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A77" s="3">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3">
+        <v>542</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>3964</v>
+      </c>
+      <c r="D77" s="43" t="s">
+        <v>4298</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G77" s="44">
+        <v>4880</v>
+      </c>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J77" s="3"/>
+      <c r="K77" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A78" s="3">
+        <v>77</v>
+      </c>
+      <c r="B78" s="3">
+        <v>542</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>3966</v>
+      </c>
+      <c r="D78" s="43" t="s">
+        <v>4299</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>3967</v>
+      </c>
+      <c r="G78" s="44">
+        <v>4050</v>
+      </c>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J78" s="3"/>
+      <c r="K78" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A79" s="3">
+        <v>78</v>
+      </c>
+      <c r="B79" s="3">
+        <v>542</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>3968</v>
+      </c>
+      <c r="D79" s="43" t="s">
+        <v>4300</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>3969</v>
+      </c>
+      <c r="G79" s="44">
+        <v>4050</v>
+      </c>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J79" s="3"/>
+      <c r="K79" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A80" s="3">
+        <v>79</v>
+      </c>
+      <c r="B80" s="3">
+        <v>542</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>3970</v>
+      </c>
+      <c r="D80" s="43" t="s">
+        <v>4301</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>3971</v>
+      </c>
+      <c r="G80" s="44">
+        <v>4100</v>
+      </c>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J80" s="3"/>
+      <c r="K80" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A81" s="3">
+        <v>80</v>
+      </c>
+      <c r="B81" s="3">
+        <v>542</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>3972</v>
+      </c>
+      <c r="D81" s="43" t="s">
+        <v>4302</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>3973</v>
+      </c>
+      <c r="G81" s="44">
+        <v>3910</v>
+      </c>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J81" s="3"/>
+      <c r="K81" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A82" s="3">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3">
+        <v>542</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>3974</v>
+      </c>
+      <c r="D82" s="43" t="s">
+        <v>4303</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>3975</v>
+      </c>
+      <c r="G82" s="44">
+        <v>3910</v>
+      </c>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J82" s="3"/>
+      <c r="K82" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A83" s="3">
+        <v>82</v>
+      </c>
+      <c r="B83" s="3">
+        <v>542</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>3976</v>
+      </c>
+      <c r="D83" s="43" t="s">
+        <v>4305</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3977</v>
+      </c>
+      <c r="G83" s="44">
+        <v>3810</v>
+      </c>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J83" s="3"/>
+      <c r="K83" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A84" s="3">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3">
+        <v>542</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>3978</v>
+      </c>
+      <c r="D84" s="43" t="s">
+        <v>4304</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>3979</v>
+      </c>
+      <c r="G84" s="44">
+        <v>3810</v>
+      </c>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J84" s="3"/>
+      <c r="K84" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A85" s="3">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3">
+        <v>542</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>3980</v>
+      </c>
+      <c r="D85" s="43" t="s">
+        <v>4306</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>3981</v>
+      </c>
+      <c r="G85" s="44">
+        <v>3680</v>
+      </c>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J85" s="3"/>
+      <c r="K85" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A86" s="3">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3">
+        <v>542</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>3982</v>
+      </c>
+      <c r="D86" s="43" t="s">
+        <v>4307</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>3983</v>
+      </c>
+      <c r="G86" s="44">
+        <v>3150</v>
+      </c>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J86" s="3"/>
+      <c r="K86" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A87" s="3">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3">
+        <v>542</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>3984</v>
+      </c>
+      <c r="D87" s="43" t="s">
+        <v>4308</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>3985</v>
+      </c>
+      <c r="G87" s="44">
+        <v>3080</v>
+      </c>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J87" s="3"/>
+      <c r="K87" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A88" s="3">
+        <v>87</v>
+      </c>
+      <c r="B88" s="3">
+        <v>542</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>3986</v>
+      </c>
+      <c r="D88" s="43" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>3987</v>
+      </c>
+      <c r="G88" s="44">
+        <v>2900</v>
+      </c>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J88" s="3"/>
+      <c r="K88" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A89" s="3">
+        <v>88</v>
+      </c>
+      <c r="B89" s="3">
+        <v>542</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>3988</v>
+      </c>
+      <c r="D89" s="43" t="s">
+        <v>4309</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>3989</v>
+      </c>
+      <c r="G89" s="44">
+        <v>2680</v>
+      </c>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J89" s="3"/>
+      <c r="K89" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A90" s="3">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3">
+        <v>542</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>3990</v>
+      </c>
+      <c r="D90" s="43" t="s">
+        <v>4311</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>3991</v>
+      </c>
+      <c r="G90" s="44">
+        <v>2560</v>
+      </c>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J90" s="3"/>
+      <c r="K90" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A91" s="3">
+        <v>90</v>
+      </c>
+      <c r="B91" s="3">
+        <v>542</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>3992</v>
+      </c>
+      <c r="D91" s="43" t="s">
+        <v>4312</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3993</v>
+      </c>
+      <c r="G91" s="44">
+        <v>2560</v>
+      </c>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J91" s="3"/>
+      <c r="K91" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A92" s="3">
+        <v>91</v>
+      </c>
+      <c r="B92" s="3">
+        <v>542</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>3994</v>
+      </c>
+      <c r="D92" s="43" t="s">
+        <v>4313</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>3995</v>
+      </c>
+      <c r="G92" s="44">
+        <v>1660</v>
+      </c>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J92" s="3"/>
+      <c r="K92" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A93" s="3">
+        <v>92</v>
+      </c>
+      <c r="B93" s="3">
+        <v>542</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>3996</v>
+      </c>
+      <c r="D93" s="43" t="s">
+        <v>4314</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>3997</v>
+      </c>
+      <c r="G93" s="44">
+        <v>1580</v>
+      </c>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J93" s="3"/>
+      <c r="K93" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A94" s="3">
+        <v>93</v>
+      </c>
+      <c r="B94" s="3">
+        <v>542</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>3998</v>
+      </c>
+      <c r="D94" s="43" t="s">
+        <v>4315</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3999</v>
+      </c>
+      <c r="G94" s="44">
+        <v>1150</v>
+      </c>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J94" s="3"/>
+      <c r="K94" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A95" s="3">
+        <v>94</v>
+      </c>
+      <c r="B95" s="3">
+        <v>542</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>4000</v>
+      </c>
+      <c r="D95" s="43" t="s">
+        <v>4316</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>4001</v>
+      </c>
+      <c r="G95" s="44">
+        <v>7000</v>
+      </c>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3" t="s">
+        <v>4002</v>
+      </c>
+      <c r="J95" s="3"/>
+      <c r="K95" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A96" s="3">
+        <v>95</v>
+      </c>
+      <c r="B96" s="3">
+        <v>542</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>4003</v>
+      </c>
+      <c r="D96" s="43" t="s">
+        <v>4317</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>4004</v>
+      </c>
+      <c r="G96" s="44">
+        <v>6000</v>
+      </c>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3" t="s">
+        <v>4002</v>
+      </c>
+      <c r="J96" s="3"/>
+      <c r="K96" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A97" s="3">
+        <v>96</v>
+      </c>
+      <c r="B97" s="3">
+        <v>542</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>4005</v>
+      </c>
+      <c r="D97" s="43" t="s">
+        <v>4318</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>4006</v>
+      </c>
+      <c r="G97" s="44">
+        <v>3200</v>
+      </c>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3" t="s">
+        <v>4002</v>
+      </c>
+      <c r="J97" s="3"/>
+      <c r="K97" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A98" s="3">
+        <v>97</v>
+      </c>
+      <c r="B98" s="3">
+        <v>542</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>4007</v>
+      </c>
+      <c r="D98" s="43" t="s">
+        <v>4319</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>4008</v>
+      </c>
+      <c r="G98" s="44">
+        <v>8000</v>
+      </c>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J98" s="3"/>
+      <c r="K98" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A99" s="3">
+        <v>98</v>
+      </c>
+      <c r="B99" s="3">
+        <v>542</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>4009</v>
+      </c>
+      <c r="D99" s="43" t="s">
+        <v>4321</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>4010</v>
+      </c>
+      <c r="G99" s="44">
+        <v>2200</v>
+      </c>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3" t="s">
+        <v>4011</v>
+      </c>
+      <c r="J99" s="3"/>
+      <c r="K99" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A100" s="3">
+        <v>99</v>
+      </c>
+      <c r="B100" s="3">
+        <v>542</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>4012</v>
+      </c>
+      <c r="D100" s="43" t="s">
+        <v>4320</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>4013</v>
+      </c>
+      <c r="G100" s="44">
+        <v>6800</v>
+      </c>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J100" s="3"/>
+      <c r="K100" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A101" s="3">
+        <v>100</v>
+      </c>
+      <c r="B101" s="3">
+        <v>542</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>4014</v>
+      </c>
+      <c r="D101" s="43" t="s">
+        <v>4322</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>4015</v>
+      </c>
+      <c r="G101" s="44">
+        <v>6800</v>
+      </c>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J101" s="3"/>
+      <c r="K101" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A102" s="3">
+        <v>101</v>
+      </c>
+      <c r="B102" s="3">
+        <v>542</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>4016</v>
+      </c>
+      <c r="D102" s="43" t="s">
+        <v>4324</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>4017</v>
+      </c>
+      <c r="G102" s="44">
+        <v>4870</v>
+      </c>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J102" s="3"/>
+      <c r="K102" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A103" s="3">
+        <v>102</v>
+      </c>
+      <c r="B103" s="3">
+        <v>542</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>4018</v>
+      </c>
+      <c r="D103" s="43" t="s">
+        <v>4323</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>4019</v>
+      </c>
+      <c r="G103" s="44">
+        <v>3900</v>
+      </c>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3" t="s">
+        <v>4020</v>
+      </c>
+      <c r="J103" s="3"/>
+      <c r="K103" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A104" s="3">
+        <v>103</v>
+      </c>
+      <c r="B104" s="3">
+        <v>542</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>4021</v>
+      </c>
+      <c r="D104" s="43" t="s">
+        <v>4325</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>4022</v>
+      </c>
+      <c r="G104" s="44">
+        <v>8500</v>
+      </c>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3" t="s">
+        <v>3424</v>
+      </c>
+      <c r="J104" s="3"/>
+      <c r="K104" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A105" s="3">
+        <v>104</v>
+      </c>
+      <c r="B105" s="3">
+        <v>542</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>4023</v>
+      </c>
+      <c r="D105" s="43" t="s">
+        <v>4326</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>4024</v>
+      </c>
+      <c r="G105" s="44">
+        <v>7700</v>
+      </c>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3" t="s">
+        <v>3424</v>
+      </c>
+      <c r="J105" s="3"/>
+      <c r="K105" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A106" s="3">
+        <v>105</v>
+      </c>
+      <c r="B106" s="3">
+        <v>542</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>4025</v>
+      </c>
+      <c r="D106" s="43" t="s">
+        <v>4327</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>4026</v>
+      </c>
+      <c r="G106" s="44">
+        <v>7380</v>
+      </c>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3" t="s">
+        <v>3424</v>
+      </c>
+      <c r="J106" s="3"/>
+      <c r="K106" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A107" s="3">
+        <v>106</v>
+      </c>
+      <c r="B107" s="3">
+        <v>542</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>4027</v>
+      </c>
+      <c r="D107" s="43" t="s">
+        <v>4329</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>4028</v>
+      </c>
+      <c r="G107" s="44">
+        <v>7200</v>
+      </c>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3" t="s">
+        <v>3424</v>
+      </c>
+      <c r="J107" s="3"/>
+      <c r="K107" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A108" s="3">
+        <v>107</v>
+      </c>
+      <c r="B108" s="3">
+        <v>542</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>4029</v>
+      </c>
+      <c r="D108" s="43" t="s">
+        <v>4328</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>4030</v>
+      </c>
+      <c r="G108" s="44">
+        <v>6400</v>
+      </c>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3" t="s">
+        <v>3424</v>
+      </c>
+      <c r="J108" s="3"/>
+      <c r="K108" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A109" s="3">
+        <v>108</v>
+      </c>
+      <c r="B109" s="3">
+        <v>542</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>4031</v>
+      </c>
+      <c r="D109" s="43" t="s">
+        <v>4330</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>4032</v>
+      </c>
+      <c r="G109" s="44">
+        <v>6400</v>
+      </c>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3" t="s">
+        <v>3424</v>
+      </c>
+      <c r="J109" s="3"/>
+      <c r="K109" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A110" s="3">
+        <v>109</v>
+      </c>
+      <c r="B110" s="3">
+        <v>542</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D110" s="43" t="s">
+        <v>4332</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>4034</v>
+      </c>
+      <c r="G110" s="44">
+        <v>6100</v>
+      </c>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3" t="s">
+        <v>3424</v>
+      </c>
+      <c r="J110" s="3"/>
+      <c r="K110" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A111" s="3">
+        <v>110</v>
+      </c>
+      <c r="B111" s="3">
+        <v>542</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>4035</v>
+      </c>
+      <c r="D111" s="43" t="s">
+        <v>4331</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>4036</v>
+      </c>
+      <c r="G111" s="44">
+        <v>5700</v>
+      </c>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3" t="s">
+        <v>3424</v>
+      </c>
+      <c r="J111" s="3"/>
+      <c r="K111" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A112" s="3">
+        <v>111</v>
+      </c>
+      <c r="B112" s="3">
+        <v>542</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>4037</v>
+      </c>
+      <c r="D112" s="43" t="s">
+        <v>4333</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>4038</v>
+      </c>
+      <c r="G112" s="44">
+        <v>4700</v>
+      </c>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3" t="s">
+        <v>3424</v>
+      </c>
+      <c r="J112" s="3"/>
+      <c r="K112" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A113" s="3">
+        <v>112</v>
+      </c>
+      <c r="B113" s="3">
+        <v>542</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>4039</v>
+      </c>
+      <c r="D113" s="43" t="s">
+        <v>4334</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>4040</v>
+      </c>
+      <c r="G113" s="44">
+        <v>4400</v>
+      </c>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3" t="s">
+        <v>3424</v>
+      </c>
+      <c r="J113" s="3"/>
+      <c r="K113" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A114" s="3">
+        <v>113</v>
+      </c>
+      <c r="B114" s="3">
+        <v>542</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>4041</v>
+      </c>
+      <c r="D114" s="43" t="s">
+        <v>4336</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>4042</v>
+      </c>
+      <c r="G114" s="44">
+        <v>4400</v>
+      </c>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3" t="s">
+        <v>3424</v>
+      </c>
+      <c r="J114" s="3"/>
+      <c r="K114" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A115" s="3">
+        <v>114</v>
+      </c>
+      <c r="B115" s="3">
+        <v>543</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>4043</v>
+      </c>
+      <c r="D115" s="43" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>4044</v>
+      </c>
+      <c r="G115" s="44">
+        <v>9900</v>
+      </c>
+      <c r="H115" s="3"/>
+      <c r="I115" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J115" s="3"/>
+      <c r="K115" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A116" s="3">
+        <v>115</v>
+      </c>
+      <c r="B116" s="3">
+        <v>543</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>4045</v>
+      </c>
+      <c r="D116" s="43" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>4046</v>
+      </c>
+      <c r="G116" s="44">
+        <v>10200</v>
+      </c>
+      <c r="H116" s="3"/>
+      <c r="I116" s="3" t="s">
+        <v>4047</v>
+      </c>
+      <c r="J116" s="3"/>
+      <c r="K116" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A117" s="3">
+        <v>116</v>
+      </c>
+      <c r="B117" s="3">
+        <v>543</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>4048</v>
+      </c>
+      <c r="D117" s="43" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>4049</v>
+      </c>
+      <c r="G117" s="44">
+        <v>5220</v>
+      </c>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J117" s="3"/>
+      <c r="K117" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A118" s="3">
+        <v>117</v>
+      </c>
+      <c r="B118" s="3">
+        <v>543</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>4050</v>
+      </c>
+      <c r="D118" s="43" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>4051</v>
+      </c>
+      <c r="G118" s="44">
+        <v>5000</v>
+      </c>
+      <c r="H118" s="3"/>
+      <c r="I118" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J118" s="3"/>
+      <c r="K118" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A119" s="3">
+        <v>118</v>
+      </c>
+      <c r="B119" s="3">
+        <v>544</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>4052</v>
+      </c>
+      <c r="D119" s="43" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>4053</v>
+      </c>
+      <c r="G119" s="44">
+        <v>8100</v>
+      </c>
+      <c r="H119" s="3"/>
+      <c r="I119" s="3" t="s">
+        <v>4054</v>
+      </c>
+      <c r="J119" s="3"/>
+      <c r="K119" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A120" s="3">
+        <v>119</v>
+      </c>
+      <c r="B120" s="3">
+        <v>544</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>4055</v>
+      </c>
+      <c r="D120" s="43" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>4056</v>
+      </c>
+      <c r="G120" s="44">
+        <v>6900</v>
+      </c>
+      <c r="H120" s="3"/>
+      <c r="I120" s="3" t="s">
+        <v>4054</v>
+      </c>
+      <c r="J120" s="3"/>
+      <c r="K120" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A121" s="3">
+        <v>120</v>
+      </c>
+      <c r="B121" s="3">
+        <v>544</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>4057</v>
+      </c>
+      <c r="D121" s="43" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>4058</v>
+      </c>
+      <c r="G121" s="44">
+        <v>6660</v>
+      </c>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3" t="s">
+        <v>4054</v>
+      </c>
+      <c r="J121" s="3"/>
+      <c r="K121" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A122" s="3">
+        <v>121</v>
+      </c>
+      <c r="B122" s="3">
+        <v>544</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>4059</v>
+      </c>
+      <c r="D122" s="43" t="s">
+        <v>4344</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>4060</v>
+      </c>
+      <c r="G122" s="44">
+        <v>2000</v>
+      </c>
+      <c r="H122" s="3"/>
+      <c r="I122" s="3" t="s">
+        <v>4054</v>
+      </c>
+      <c r="J122" s="3"/>
+      <c r="K122" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A123" s="3">
+        <v>122</v>
+      </c>
+      <c r="B123" s="3">
+        <v>544</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>4061</v>
+      </c>
+      <c r="D123" s="43" t="s">
+        <v>4343</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>4062</v>
+      </c>
+      <c r="G123" s="44">
+        <v>1800</v>
+      </c>
+      <c r="H123" s="3"/>
+      <c r="I123" s="3" t="s">
+        <v>4054</v>
+      </c>
+      <c r="J123" s="3"/>
+      <c r="K123" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A124" s="3">
+        <v>123</v>
+      </c>
+      <c r="B124" s="3">
+        <v>544</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D124" s="43" t="s">
+        <v>4345</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>4064</v>
+      </c>
+      <c r="G124" s="44">
+        <v>4900</v>
+      </c>
+      <c r="H124" s="3"/>
+      <c r="I124" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J124" s="3"/>
+      <c r="K124" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A125" s="3">
+        <v>124</v>
+      </c>
+      <c r="B125" s="3">
+        <v>544</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>4065</v>
+      </c>
+      <c r="D125" s="43" t="s">
+        <v>4346</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>4066</v>
+      </c>
+      <c r="G125" s="44">
+        <v>4300</v>
+      </c>
+      <c r="H125" s="3"/>
+      <c r="I125" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J125" s="3"/>
+      <c r="K125" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A126" s="3">
+        <v>125</v>
+      </c>
+      <c r="B126" s="3">
+        <v>544</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>4067</v>
+      </c>
+      <c r="D126" s="43" t="s">
+        <v>4347</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>4068</v>
+      </c>
+      <c r="G126" s="44">
+        <v>9660</v>
+      </c>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3" t="s">
+        <v>4069</v>
+      </c>
+      <c r="J126" s="3"/>
+      <c r="K126" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A127" s="3">
+        <v>126</v>
+      </c>
+      <c r="B127" s="3">
+        <v>544</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>4070</v>
+      </c>
+      <c r="D127" s="43" t="s">
+        <v>4348</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>4071</v>
+      </c>
+      <c r="G127" s="44">
+        <v>9660</v>
+      </c>
+      <c r="H127" s="3"/>
+      <c r="I127" s="3" t="s">
+        <v>4069</v>
+      </c>
+      <c r="J127" s="3"/>
+      <c r="K127" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A128" s="3">
+        <v>127</v>
+      </c>
+      <c r="B128" s="3">
+        <v>544</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>4072</v>
+      </c>
+      <c r="D128" s="43" t="s">
+        <v>4349</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>4073</v>
+      </c>
+      <c r="G128" s="44">
+        <v>9660</v>
+      </c>
+      <c r="H128" s="3"/>
+      <c r="I128" s="3" t="s">
+        <v>4069</v>
+      </c>
+      <c r="J128" s="3"/>
+      <c r="K128" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A129" s="3">
+        <v>128</v>
+      </c>
+      <c r="B129" s="3">
+        <v>544</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>4074</v>
+      </c>
+      <c r="D129" s="43" t="s">
+        <v>4350</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>4075</v>
+      </c>
+      <c r="G129" s="44">
+        <v>9660</v>
+      </c>
+      <c r="H129" s="3"/>
+      <c r="I129" s="3" t="s">
+        <v>4069</v>
+      </c>
+      <c r="J129" s="3"/>
+      <c r="K129" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A130" s="3">
+        <v>129</v>
+      </c>
+      <c r="B130" s="3">
+        <v>544</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>4076</v>
+      </c>
+      <c r="D130" s="43" t="s">
+        <v>4351</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>4077</v>
+      </c>
+      <c r="G130" s="44">
+        <v>9660</v>
+      </c>
+      <c r="H130" s="3"/>
+      <c r="I130" s="3" t="s">
+        <v>4069</v>
+      </c>
+      <c r="J130" s="3"/>
+      <c r="K130" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A131" s="3">
+        <v>130</v>
+      </c>
+      <c r="B131" s="3">
+        <v>544</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>4078</v>
+      </c>
+      <c r="D131" s="43" t="s">
+        <v>4352</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>4079</v>
+      </c>
+      <c r="G131" s="44">
+        <v>9660</v>
+      </c>
+      <c r="H131" s="3"/>
+      <c r="I131" s="3" t="s">
+        <v>4069</v>
+      </c>
+      <c r="J131" s="3"/>
+      <c r="K131" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A132" s="3">
+        <v>131</v>
+      </c>
+      <c r="B132" s="3">
+        <v>544</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>4080</v>
+      </c>
+      <c r="D132" s="43" t="s">
+        <v>4353</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>4081</v>
+      </c>
+      <c r="G132" s="44">
+        <v>9200</v>
+      </c>
+      <c r="H132" s="3"/>
+      <c r="I132" s="3" t="s">
+        <v>4069</v>
+      </c>
+      <c r="J132" s="3"/>
+      <c r="K132" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A133" s="3">
+        <v>132</v>
+      </c>
+      <c r="B133" s="3">
+        <v>544</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>4082</v>
+      </c>
+      <c r="D133" s="43" t="s">
+        <v>4354</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>4083</v>
+      </c>
+      <c r="G133" s="44">
+        <v>8910</v>
+      </c>
+      <c r="H133" s="3"/>
+      <c r="I133" s="3" t="s">
+        <v>4069</v>
+      </c>
+      <c r="J133" s="3"/>
+      <c r="K133" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A134" s="3">
+        <v>133</v>
+      </c>
+      <c r="B134" s="3">
+        <v>544</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>4084</v>
+      </c>
+      <c r="D134" s="43" t="s">
+        <v>4355</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>4085</v>
+      </c>
+      <c r="G134" s="44">
+        <v>8910</v>
+      </c>
+      <c r="H134" s="3"/>
+      <c r="I134" s="3" t="s">
+        <v>4069</v>
+      </c>
+      <c r="J134" s="3"/>
+      <c r="K134" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A135" s="3">
+        <v>134</v>
+      </c>
+      <c r="B135" s="3">
+        <v>544</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>4086</v>
+      </c>
+      <c r="D135" s="43" t="s">
+        <v>4356</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>4087</v>
+      </c>
+      <c r="G135" s="44">
+        <v>8910</v>
+      </c>
+      <c r="H135" s="3"/>
+      <c r="I135" s="3" t="s">
+        <v>4069</v>
+      </c>
+      <c r="J135" s="3"/>
+      <c r="K135" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A136" s="3">
+        <v>135</v>
+      </c>
+      <c r="B136" s="3">
+        <v>544</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>4088</v>
+      </c>
+      <c r="D136" s="43" t="s">
+        <v>4357</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>4089</v>
+      </c>
+      <c r="G136" s="44">
+        <v>8910</v>
+      </c>
+      <c r="H136" s="3"/>
+      <c r="I136" s="3" t="s">
+        <v>4069</v>
+      </c>
+      <c r="J136" s="3"/>
+      <c r="K136" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A137" s="3">
+        <v>136</v>
+      </c>
+      <c r="B137" s="3">
+        <v>544</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>4090</v>
+      </c>
+      <c r="D137" s="43" t="s">
+        <v>4358</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>4091</v>
+      </c>
+      <c r="G137" s="44">
+        <v>8910</v>
+      </c>
+      <c r="H137" s="3"/>
+      <c r="I137" s="3" t="s">
+        <v>4069</v>
+      </c>
+      <c r="J137" s="3"/>
+      <c r="K137" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A138" s="3">
+        <v>137</v>
+      </c>
+      <c r="B138" s="3">
+        <v>544</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>4092</v>
+      </c>
+      <c r="D138" s="43" t="s">
+        <v>4359</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>4093</v>
+      </c>
+      <c r="G138" s="44">
+        <v>8910</v>
+      </c>
+      <c r="H138" s="3"/>
+      <c r="I138" s="3" t="s">
+        <v>4069</v>
+      </c>
+      <c r="J138" s="3"/>
+      <c r="K138" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A139" s="3">
+        <v>138</v>
+      </c>
+      <c r="B139" s="3">
+        <v>544</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>4094</v>
+      </c>
+      <c r="D139" s="43" t="s">
+        <v>4360</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>4095</v>
+      </c>
+      <c r="G139" s="44">
+        <v>8910</v>
+      </c>
+      <c r="H139" s="3"/>
+      <c r="I139" s="3" t="s">
+        <v>4069</v>
+      </c>
+      <c r="J139" s="3"/>
+      <c r="K139" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A140" s="3">
+        <v>139</v>
+      </c>
+      <c r="B140" s="3">
+        <v>544</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>4096</v>
+      </c>
+      <c r="D140" s="43" t="s">
+        <v>4361</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>4097</v>
+      </c>
+      <c r="G140" s="44">
+        <v>8910</v>
+      </c>
+      <c r="H140" s="3"/>
+      <c r="I140" s="3" t="s">
+        <v>4069</v>
+      </c>
+      <c r="J140" s="3"/>
+      <c r="K140" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A141" s="3">
+        <v>140</v>
+      </c>
+      <c r="B141" s="3">
+        <v>544</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>4098</v>
+      </c>
+      <c r="D141" s="43" t="s">
+        <v>4362</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>4099</v>
+      </c>
+      <c r="G141" s="44">
+        <v>8910</v>
+      </c>
+      <c r="H141" s="3"/>
+      <c r="I141" s="3" t="s">
+        <v>4069</v>
+      </c>
+      <c r="J141" s="3"/>
+      <c r="K141" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A142" s="3">
+        <v>141</v>
+      </c>
+      <c r="B142" s="3">
+        <v>544</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>4100</v>
+      </c>
+      <c r="D142" s="43" t="s">
+        <v>4363</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>4101</v>
+      </c>
+      <c r="G142" s="44">
+        <v>8910</v>
+      </c>
+      <c r="H142" s="3"/>
+      <c r="I142" s="3" t="s">
+        <v>4069</v>
+      </c>
+      <c r="J142" s="3"/>
+      <c r="K142" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A143" s="3">
+        <v>142</v>
+      </c>
+      <c r="B143" s="3">
+        <v>544</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>4102</v>
+      </c>
+      <c r="D143" s="43" t="s">
+        <v>4364</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>4103</v>
+      </c>
+      <c r="G143" s="44">
+        <v>8910</v>
+      </c>
+      <c r="H143" s="3"/>
+      <c r="I143" s="3" t="s">
+        <v>4069</v>
+      </c>
+      <c r="J143" s="3"/>
+      <c r="K143" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A144" s="3">
+        <v>143</v>
+      </c>
+      <c r="B144" s="3">
+        <v>544</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>4104</v>
+      </c>
+      <c r="D144" s="43" t="s">
+        <v>4365</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>4105</v>
+      </c>
+      <c r="G144" s="44">
+        <v>8910</v>
+      </c>
+      <c r="H144" s="3"/>
+      <c r="I144" s="3" t="s">
+        <v>4069</v>
+      </c>
+      <c r="J144" s="3"/>
+      <c r="K144" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A145" s="3">
+        <v>144</v>
+      </c>
+      <c r="B145" s="3">
+        <v>544</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>4106</v>
+      </c>
+      <c r="D145" s="43" t="s">
+        <v>4367</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>4107</v>
+      </c>
+      <c r="G145" s="44">
+        <v>8910</v>
+      </c>
+      <c r="H145" s="3"/>
+      <c r="I145" s="3" t="s">
+        <v>4069</v>
+      </c>
+      <c r="J145" s="3"/>
+      <c r="K145" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A146" s="3">
+        <v>145</v>
+      </c>
+      <c r="B146" s="3">
+        <v>544</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>4108</v>
+      </c>
+      <c r="D146" s="43" t="s">
+        <v>4366</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>4109</v>
+      </c>
+      <c r="G146" s="44">
+        <v>8910</v>
+      </c>
+      <c r="H146" s="3"/>
+      <c r="I146" s="3" t="s">
+        <v>4069</v>
+      </c>
+      <c r="J146" s="3"/>
+      <c r="K146" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A147" s="3">
+        <v>146</v>
+      </c>
+      <c r="B147" s="3">
+        <v>544</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>4110</v>
+      </c>
+      <c r="D147" s="43" t="s">
+        <v>4368</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>4111</v>
+      </c>
+      <c r="G147" s="44">
+        <v>8910</v>
+      </c>
+      <c r="H147" s="3"/>
+      <c r="I147" s="3" t="s">
+        <v>4069</v>
+      </c>
+      <c r="J147" s="3"/>
+      <c r="K147" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A148" s="3">
+        <v>147</v>
+      </c>
+      <c r="B148" s="3">
+        <v>544</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>4112</v>
+      </c>
+      <c r="D148" s="43" t="s">
+        <v>4370</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>4113</v>
+      </c>
+      <c r="G148" s="44">
+        <v>8740</v>
+      </c>
+      <c r="H148" s="3"/>
+      <c r="I148" s="3" t="s">
+        <v>4069</v>
+      </c>
+      <c r="J148" s="3"/>
+      <c r="K148" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A149" s="3">
+        <v>148</v>
+      </c>
+      <c r="B149" s="3">
+        <v>544</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>4114</v>
+      </c>
+      <c r="D149" s="43" t="s">
+        <v>4369</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>4115</v>
+      </c>
+      <c r="G149" s="44">
+        <v>8150</v>
+      </c>
+      <c r="H149" s="3"/>
+      <c r="I149" s="3" t="s">
+        <v>4069</v>
+      </c>
+      <c r="J149" s="3"/>
+      <c r="K149" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A150" s="3">
+        <v>149</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>4116</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>4117</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>4118</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>4119</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>4120</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J150" s="3" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C150))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+      <c r="K150" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A151" s="3">
+        <v>150</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>4121</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>4122</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>4123</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>4124</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>4125</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>4126</v>
+      </c>
+      <c r="J151" s="3" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C151))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+      <c r="K151" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A152" s="3">
+        <v>151</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>4121</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>4127</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>4128</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>4129</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>4130</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J152" s="3" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C152))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+      <c r="K152" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A153" s="3">
+        <v>152</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>4121</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>4131</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>4132</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>4133</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>4134</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J153" s="3" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C153))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+      <c r="K153" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A154" s="3">
+        <v>153</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>4121</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>4135</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>4136</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>4137</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>4134</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J154" s="3" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C154))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+      <c r="K154" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A155" s="3">
+        <v>154</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>4121</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>4138</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>4139</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>4140</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>4134</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J155" s="3" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C155))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+      <c r="K155" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A156" s="3">
+        <v>155</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>4121</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>4141</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>4142</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>4143</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>4144</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J156" s="3" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C156))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+      <c r="K156" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A157" s="3">
+        <v>156</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>4121</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>4145</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>4146</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>4147</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>4148</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J157" s="3" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C157))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+      <c r="K157" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A158" s="3">
+        <v>157</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>4121</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>4149</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>4150</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>4151</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>4152</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J158" s="3" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C158))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+      <c r="K158" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A159" s="3">
+        <v>158</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>4121</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>4153</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>4154</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>4155</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>4148</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J159" s="3" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C159))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+      <c r="K159" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A160" s="3">
+        <v>159</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>4156</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>4157</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>4158</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>4159</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>3540</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I160" s="3" t="s">
+        <v>4160</v>
+      </c>
+      <c r="J160" s="3" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C160))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+      <c r="K160" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A161" s="3">
+        <v>160</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>4156</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>4161</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>4162</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>4163</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>3578</v>
+      </c>
+      <c r="H161" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I161" s="3" t="s">
+        <v>4160</v>
+      </c>
+      <c r="J161" s="3" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C161))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+      <c r="K161" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A162" s="3">
+        <v>161</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>4156</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>4164</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>4165</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>4166</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>3578</v>
+      </c>
+      <c r="H162" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I162" s="3" t="s">
+        <v>4160</v>
+      </c>
+      <c r="J162" s="3" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C162))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+      <c r="K162" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A163" s="3">
+        <v>162</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>4156</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>4167</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>4168</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>4169</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>3578</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I163" s="3" t="s">
+        <v>4160</v>
+      </c>
+      <c r="J163" s="3" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C163))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+      <c r="K163" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A164" s="3">
+        <v>163</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>4156</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>4170</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>4171</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>4172</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I164" s="3" t="s">
+        <v>4160</v>
+      </c>
+      <c r="J164" s="3" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C164))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+      <c r="K164" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A165" s="3">
+        <v>164</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>4156</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>4173</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>4174</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>4175</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H165" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I165" s="3" t="s">
+        <v>4160</v>
+      </c>
+      <c r="J165" s="3" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C165))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+      <c r="K165" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A166" s="3">
+        <v>165</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>4156</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>4176</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>4177</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>4178</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>3469</v>
+      </c>
+      <c r="H166" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I166" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J166" s="3" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C166))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+      <c r="K166" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A167" s="3">
+        <v>166</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>4156</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>4179</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>4180</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F167" s="45" t="s">
+        <v>4220</v>
+      </c>
+      <c r="G167" s="3" t="s">
+        <v>4181</v>
+      </c>
+      <c r="H167" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I167" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J167" s="3" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C167))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+      <c r="K167" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A168" s="3">
+        <v>167</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>4182</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>4183</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>4184</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>4185</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>3393</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I168" s="3" t="s">
+        <v>4186</v>
+      </c>
+      <c r="J168" s="3" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C168))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+      <c r="K168" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A169" s="3">
+        <v>168</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>4182</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>4187</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>4188</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>4189</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>3393</v>
+      </c>
+      <c r="H169" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I169" s="3" t="s">
+        <v>4186</v>
+      </c>
+      <c r="J169" s="3" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C169))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+      <c r="K169" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A170" s="3">
+        <v>169</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>4182</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>4190</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>4191</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>4192</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>3393</v>
+      </c>
+      <c r="H170" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I170" s="3" t="s">
+        <v>4186</v>
+      </c>
+      <c r="J170" s="3" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C170))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+      <c r="K170" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A171" s="3">
+        <v>170</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>4182</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>4193</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>4194</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>4195</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>3393</v>
+      </c>
+      <c r="H171" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I171" s="3" t="s">
+        <v>4186</v>
+      </c>
+      <c r="J171" s="3" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C171))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+      <c r="K171" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A172" s="3">
+        <v>171</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>4182</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>4196</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>4197</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>4198</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>3393</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I172" s="3" t="s">
+        <v>4186</v>
+      </c>
+      <c r="J172" s="3" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C172))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+      <c r="K172" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A173" s="3">
+        <v>172</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>4182</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>4199</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>4200</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F173" s="45" t="s">
+        <v>4219</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>3393</v>
+      </c>
+      <c r="H173" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I173" s="3" t="s">
+        <v>4186</v>
+      </c>
+      <c r="J173" s="3" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C173))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+      <c r="K173" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A174" s="3">
+        <v>173</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>4182</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>4201</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>4202</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>4203</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>3393</v>
+      </c>
+      <c r="H174" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I174" s="3" t="s">
+        <v>4186</v>
+      </c>
+      <c r="J174" s="3" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C174))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+      <c r="K174" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A175" s="3">
+        <v>174</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>4182</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>4204</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>4205</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>4206</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>3393</v>
+      </c>
+      <c r="H175" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I175" s="3" t="s">
+        <v>4186</v>
+      </c>
+      <c r="J175" s="3" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C175))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+      <c r="K175" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A176" s="3">
+        <v>175</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>4182</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>4207</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>4208</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>4209</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>3393</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I176" s="3" t="s">
+        <v>4186</v>
+      </c>
+      <c r="J176" s="3" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C176))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+      <c r="K176" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A177" s="3">
+        <v>176</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>4210</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>4211</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>4212</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F177" s="45" t="s">
+        <v>4218</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>4213</v>
+      </c>
+      <c r="H177" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I177" s="3" t="s">
+        <v>4214</v>
+      </c>
+      <c r="J177" s="3" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C177))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+      <c r="K177" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A178" s="3">
+        <v>177</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>4210</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>4215</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>4216</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F178" s="45" t="s">
+        <v>4221</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>4217</v>
+      </c>
+      <c r="H178" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I178" s="3" t="s">
+        <v>4214</v>
+      </c>
+      <c r="J178" s="3" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C178))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+      <c r="K178" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A179" s="3">
+        <v>178</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>4371</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>4372</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>4373</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>4374</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>4125</v>
+      </c>
+      <c r="H179" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I179" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J179" s="3" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C179))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+      <c r="K179" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A180" s="3">
+        <v>179</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>4371</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>4375</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>4376</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>4377</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>4125</v>
+      </c>
+      <c r="H180" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I180" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J180" s="3" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C180))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+      <c r="K180" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A181" s="3">
+        <v>180</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>4371</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>4378</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>4379</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>4380</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>4181</v>
+      </c>
+      <c r="H181" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I181" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J181" s="3" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C181))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+      <c r="K181" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A182" s="3">
+        <v>181</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>4371</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>4381</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>4382</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>4383</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>3750</v>
+      </c>
+      <c r="H182" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I182" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J182" s="3" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C182))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+      <c r="K182" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A183" s="3">
+        <v>182</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>4371</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>4384</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>4385</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>4386</v>
+      </c>
+      <c r="G183" s="3" t="s">
+        <v>4387</v>
+      </c>
+      <c r="H183" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I183" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J183" s="3" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C183))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+      <c r="K183" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A184" s="3">
+        <v>183</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>4371</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>4388</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>4389</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>4390</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>3507</v>
+      </c>
+      <c r="H184" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I184" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J184" s="3" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C184))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+      <c r="K184" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A185" s="3">
+        <v>184</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>4371</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>4391</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>4392</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>4393</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>3505</v>
+      </c>
+      <c r="H185" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I185" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J185" s="3" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C185))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+      <c r="K185" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A186" s="3">
+        <v>185</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>4371</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>4394</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>4395</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>4396</v>
+      </c>
+      <c r="G186" s="3" t="s">
+        <v>4397</v>
+      </c>
+      <c r="H186" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I186" s="3" t="s">
+        <v>3912</v>
+      </c>
+      <c r="J186" s="3" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C186))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+      <c r="K186" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A187" s="3">
+        <v>186</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>4371</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>4398</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>4399</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>4400</v>
+      </c>
+      <c r="G187" s="3" t="s">
+        <v>3472</v>
+      </c>
+      <c r="H187" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I187" s="3" t="s">
+        <v>3912</v>
+      </c>
+      <c r="J187" s="3" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C187))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+      <c r="K187" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A188" s="3">
+        <v>187</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>4371</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>4401</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>4402</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>4403</v>
+      </c>
+      <c r="G188" s="3" t="s">
+        <v>4404</v>
+      </c>
+      <c r="H188" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I188" s="3" t="s">
+        <v>3912</v>
+      </c>
+      <c r="J188" s="3" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C188))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+      <c r="K188" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A189" s="3">
+        <v>188</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>4371</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>4405</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>4406</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>4407</v>
+      </c>
+      <c r="G189" s="3" t="s">
+        <v>4404</v>
+      </c>
+      <c r="H189" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I189" s="3" t="s">
+        <v>3912</v>
+      </c>
+      <c r="J189" s="3" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C189))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+      <c r="K189" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A190" s="3">
+        <v>189</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>4408</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>4409</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>4410</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>4411</v>
+      </c>
+      <c r="G190" s="3" t="s">
+        <v>3451</v>
+      </c>
+      <c r="H190" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I190" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J190" s="3" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C190))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+      <c r="K190" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A191" s="3">
+        <v>190</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>4408</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>4412</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>4413</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>4414</v>
+      </c>
+      <c r="G191" s="3" t="s">
+        <v>4415</v>
+      </c>
+      <c r="H191" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I191" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="J191" s="3" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C191))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+      <c r="K191" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A192" s="3">
+        <v>191</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>4408</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>4416</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>4417</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>4418</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>4419</v>
+      </c>
+      <c r="H192" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I192" s="3" t="s">
+        <v>4420</v>
+      </c>
+      <c r="J192" s="3" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C192))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+      <c r="K192" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A193" s="3">
+        <v>192</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>4408</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>4421</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>4422</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>4423</v>
+      </c>
+      <c r="G193" s="3" t="s">
+        <v>4424</v>
+      </c>
+      <c r="H193" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I193" s="3" t="s">
+        <v>4420</v>
+      </c>
+      <c r="J193" s="3" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C193))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+      <c r="K193" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A194" s="3">
+        <v>193</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>4408</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>4425</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>4426</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>4427</v>
+      </c>
+      <c r="G194" s="3" t="s">
+        <v>4428</v>
+      </c>
+      <c r="H194" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I194" s="3" t="s">
+        <v>4420</v>
+      </c>
+      <c r="J194" s="3" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C194))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+      <c r="K194" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A195" s="3">
+        <v>194</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>4408</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>4429</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>4430</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F195" s="3" t="s">
+        <v>4431</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>3463</v>
+      </c>
+      <c r="H195" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I195" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J195" s="3" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C195))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+      <c r="K195" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A196" s="3">
+        <v>195</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>4408</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>4432</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>4433</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F196" s="3" t="s">
+        <v>4434</v>
+      </c>
+      <c r="G196" s="3" t="s">
+        <v>4435</v>
+      </c>
+      <c r="H196" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I196" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J196" s="3" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C196))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+      <c r="K196" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A197" s="3">
+        <v>196</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>4408</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>4447</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>4436</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>4437</v>
+      </c>
+      <c r="G197" s="3" t="s">
+        <v>4438</v>
+      </c>
+      <c r="H197" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I197" s="3" t="s">
+        <v>3912</v>
+      </c>
+      <c r="J197" s="3" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C197))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+      <c r="K197" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A198" s="3">
+        <v>197</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>4408</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>4439</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>4440</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>4441</v>
+      </c>
+      <c r="G198" s="3" t="s">
+        <v>4438</v>
+      </c>
+      <c r="H198" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I198" s="3" t="s">
+        <v>3912</v>
+      </c>
+      <c r="J198" s="3" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C198))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+      <c r="K198" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A199" s="3">
+        <v>198</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>4408</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>4442</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>4443</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F199" s="3" t="s">
+        <v>4444</v>
+      </c>
+      <c r="G199" s="3" t="s">
+        <v>4438</v>
+      </c>
+      <c r="H199" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I199" s="3" t="s">
+        <v>3912</v>
+      </c>
+      <c r="J199" s="3" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C199))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+      <c r="K199" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A200" s="3">
+        <v>199</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>4408</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>4448</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>4449</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F200" s="3" t="s">
+        <v>4450</v>
+      </c>
+      <c r="G200" s="3" t="s">
+        <v>4451</v>
+      </c>
+      <c r="H200" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I200" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J200" s="3" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C200))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+      <c r="K200" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A201" s="3">
+        <v>200</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>4408</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>4452</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>4453</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F201" s="3" t="s">
+        <v>4454</v>
+      </c>
+      <c r="G201" s="3" t="s">
+        <v>4455</v>
+      </c>
+      <c r="H201" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I201" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J201" s="3" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C201))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+      <c r="K201" t="s">
+        <v>4456</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H2:H5">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="*">
-      <formula>NOT(ISERROR(SEARCH("*",H2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C3 C5">
-    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
-  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F7" r:id="rId1" xr:uid="{23348995-067C-4BA9-A7AF-0E3C8DA33B1B}"/>
+    <hyperlink ref="F177" r:id="rId1" xr:uid="{E1B2657B-D82D-4141-A0CC-62F91A797951}"/>
+    <hyperlink ref="F173" r:id="rId2" xr:uid="{F0B12590-4BB7-491B-A21E-A7301F998EFB}"/>
+    <hyperlink ref="F167" r:id="rId3" xr:uid="{37D04C7B-1A3F-4138-A376-504A5B5D4652}"/>
+    <hyperlink ref="F178" r:id="rId4" xr:uid="{508D8811-2B2F-4F3A-8524-F57441744874}"/>
+    <hyperlink ref="F51" r:id="rId5" xr:uid="{AF96F0CD-C740-445A-9DAE-C048E47FB5ED}"/>
+    <hyperlink ref="F2" r:id="rId6" xr:uid="{6EC601FD-5CCE-4258-87B9-525834CF7480}"/>
+    <hyperlink ref="F3" r:id="rId7" xr:uid="{7B75112C-45B7-498F-8422-73CBE0E6B66B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -12811,17 +21040,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.59765625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.09765625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="49.296875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.09765625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.5" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="68.59765625" collapsed="true"/>
-    <col min="7" max="7" width="8.59765625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="26.5" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.09765625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.69921875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="12.69921875" collapsed="true"/>
+    <col min="1" max="1" width="8.59765625" collapsed="1"/>
+    <col min="2" max="2" width="11.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="49.296875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.09765625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="68.59765625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8.59765625" collapsed="1"/>
+    <col min="8" max="8" width="26.5" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.09765625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.69921875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
@@ -19325,15 +27554,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.796875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.09765625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="49.296875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.09765625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.5" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="57.59765625" collapsed="true"/>
-    <col min="7" max="7" width="8.796875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="26.5" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="34.8984375" collapsed="true"/>
+    <col min="1" max="1" width="8.796875" collapsed="1"/>
+    <col min="2" max="2" width="11.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="49.296875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.09765625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="57.59765625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8.796875" collapsed="1"/>
+    <col min="8" max="8" width="26.5" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="34.8984375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
@@ -58751,8 +66980,8 @@
       <c r="E1489" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1489" s="41" t="s">
-        <v>3801</v>
+      <c r="F1489" s="40" t="s">
+        <v>3795</v>
       </c>
       <c r="G1489" s="9">
         <v>5800</v>
@@ -58780,8 +67009,8 @@
       <c r="E1490" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1490" s="41" t="s">
-        <v>3801</v>
+      <c r="F1490" s="40" t="s">
+        <v>3795</v>
       </c>
       <c r="G1490" s="9">
         <v>5800</v>
@@ -58809,8 +67038,8 @@
       <c r="E1491" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1491" s="41" t="s">
-        <v>3802</v>
+      <c r="F1491" s="40" t="s">
+        <v>3796</v>
       </c>
       <c r="G1491" s="9">
         <v>7900</v>
@@ -58838,8 +67067,8 @@
       <c r="E1492" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1492" s="41" t="s">
-        <v>3802</v>
+      <c r="F1492" s="40" t="s">
+        <v>3796</v>
       </c>
       <c r="G1492" s="9">
         <v>7900</v>
@@ -58867,8 +67096,8 @@
       <c r="E1493" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1493" s="41" t="s">
-        <v>3802</v>
+      <c r="F1493" s="40" t="s">
+        <v>3796</v>
       </c>
       <c r="G1493" s="9">
         <v>7900</v>
@@ -58896,8 +67125,8 @@
       <c r="E1494" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1494" s="41" t="s">
-        <v>3802</v>
+      <c r="F1494" s="40" t="s">
+        <v>3796</v>
       </c>
       <c r="G1494" s="9">
         <v>7900</v>
@@ -58925,8 +67154,8 @@
       <c r="E1495" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1495" s="41" t="s">
-        <v>3802</v>
+      <c r="F1495" s="40" t="s">
+        <v>3796</v>
       </c>
       <c r="G1495" s="9">
         <v>7900</v>
@@ -58954,8 +67183,8 @@
       <c r="E1496" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1496" s="41" t="s">
-        <v>3803</v>
+      <c r="F1496" s="40" t="s">
+        <v>3797</v>
       </c>
       <c r="G1496" s="9">
         <v>8800</v>
@@ -58983,8 +67212,8 @@
       <c r="E1497" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1497" s="41" t="s">
-        <v>3803</v>
+      <c r="F1497" s="40" t="s">
+        <v>3797</v>
       </c>
       <c r="G1497" s="9">
         <v>8800</v>
@@ -59012,8 +67241,8 @@
       <c r="E1498" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1498" s="41" t="s">
-        <v>3803</v>
+      <c r="F1498" s="40" t="s">
+        <v>3797</v>
       </c>
       <c r="G1498" s="9">
         <v>8800</v>
@@ -59041,8 +67270,8 @@
       <c r="E1499" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1499" s="41" t="s">
-        <v>3803</v>
+      <c r="F1499" s="40" t="s">
+        <v>3797</v>
       </c>
       <c r="G1499" s="9">
         <v>8800</v>
@@ -59070,8 +67299,8 @@
       <c r="E1500" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1500" s="41" t="s">
-        <v>3804</v>
+      <c r="F1500" s="40" t="s">
+        <v>3798</v>
       </c>
       <c r="G1500" s="9">
         <v>8800</v>
@@ -59099,8 +67328,8 @@
       <c r="E1501" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1501" s="41" t="s">
-        <v>3804</v>
+      <c r="F1501" s="40" t="s">
+        <v>3798</v>
       </c>
       <c r="G1501" s="9">
         <v>8800</v>
@@ -59128,8 +67357,8 @@
       <c r="E1502" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1502" s="41" t="s">
-        <v>3804</v>
+      <c r="F1502" s="40" t="s">
+        <v>3798</v>
       </c>
       <c r="G1502" s="9">
         <v>8800</v>
@@ -59157,8 +67386,8 @@
       <c r="E1503" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1503" s="41" t="s">
-        <v>3804</v>
+      <c r="F1503" s="40" t="s">
+        <v>3798</v>
       </c>
       <c r="G1503" s="9">
         <v>8800</v>
@@ -59186,8 +67415,8 @@
       <c r="E1504" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1504" s="42" t="s">
-        <v>3805</v>
+      <c r="F1504" s="41" t="s">
+        <v>3799</v>
       </c>
       <c r="G1504" s="9">
         <v>6100</v>
@@ -59215,8 +67444,8 @@
       <c r="E1505" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1505" s="43" t="s">
-        <v>3806</v>
+      <c r="F1505" s="42" t="s">
+        <v>3800</v>
       </c>
       <c r="G1505" s="9">
         <v>1200</v>
@@ -59242,8 +67471,8 @@
       <c r="E1506" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1506" s="43" t="s">
-        <v>3807</v>
+      <c r="F1506" s="42" t="s">
+        <v>3801</v>
       </c>
       <c r="G1506" s="9">
         <v>1300</v>
@@ -59269,8 +67498,8 @@
       <c r="E1507" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1507" s="43" t="s">
-        <v>3808</v>
+      <c r="F1507" s="42" t="s">
+        <v>3802</v>
       </c>
       <c r="G1507" s="9">
         <v>800</v>
@@ -59297,7 +67526,7 @@
         <v>10</v>
       </c>
       <c r="F1508" s="1" t="s">
-        <v>3809</v>
+        <v>3803</v>
       </c>
       <c r="G1508" s="9">
         <v>1500</v>
@@ -59324,7 +67553,7 @@
         <v>10</v>
       </c>
       <c r="F1509" s="1" t="s">
-        <v>3810</v>
+        <v>3804</v>
       </c>
       <c r="G1509" s="9">
         <v>1500</v>
@@ -59351,7 +67580,7 @@
         <v>10</v>
       </c>
       <c r="F1510" s="1" t="s">
-        <v>3811</v>
+        <v>3805</v>
       </c>
       <c r="G1510" s="9">
         <v>1000</v>
@@ -59378,7 +67607,7 @@
         <v>10</v>
       </c>
       <c r="F1511" s="1" t="s">
-        <v>3812</v>
+        <v>3806</v>
       </c>
       <c r="G1511" s="9">
         <v>1200</v>
@@ -59405,7 +67634,7 @@
         <v>10</v>
       </c>
       <c r="F1512" s="1" t="s">
-        <v>3813</v>
+        <v>3807</v>
       </c>
       <c r="G1512" s="9">
         <v>1200</v>
@@ -59432,7 +67661,7 @@
         <v>10</v>
       </c>
       <c r="F1513" s="1" t="s">
-        <v>3812</v>
+        <v>3806</v>
       </c>
       <c r="G1513" s="9">
         <v>1500</v>
@@ -59459,7 +67688,7 @@
         <v>10</v>
       </c>
       <c r="F1514" s="1" t="s">
-        <v>3814</v>
+        <v>3808</v>
       </c>
       <c r="G1514" s="9">
         <v>1700</v>
@@ -59486,7 +67715,7 @@
         <v>10</v>
       </c>
       <c r="F1515" s="1" t="s">
-        <v>3815</v>
+        <v>3809</v>
       </c>
       <c r="G1515" s="16">
         <v>2500</v>

--- a/구매 예정 리스트.xlsx
+++ b/구매 예정 리스트.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\CrawlHelper\"/>
     </mc:Choice>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12119" uniqueCount="4457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12159" uniqueCount="4464">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -13665,6 +13665,27 @@
   </si>
   <si>
     <t>담기완료</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>0003731581</t>
+  </si>
+  <si>
+    <t>https://www.daisomall.co.kr/shop/goods_view.php?id=0003731581</t>
+  </si>
+  <si>
+    <t>3850</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>204</t>
   </si>
 </sst>
 </file>
@@ -14502,7 +14523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B35123C1-8297-4A82-8257-74927FD20B55}">
-  <dimension ref="A1:K201"/>
+  <dimension ref="A1:K205"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A166" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O191" sqref="O191"/>
@@ -14510,16 +14531,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.796875" collapsed="1"/>
-    <col min="2" max="2" width="11.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="49.296875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.09765625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="68.59765625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.796875" collapsed="1"/>
-    <col min="8" max="8" width="26.5" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.09765625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.5" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="8.796875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.09765625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="49.296875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.09765625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="68.59765625" collapsed="true"/>
+    <col min="7" max="7" width="8.796875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="26.5" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.09765625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
@@ -21012,6 +21033,138 @@
       </c>
       <c r="K201" t="s">
         <v>4456</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>4457</v>
+      </c>
+      <c r="B202" t="s">
+        <v>3793</v>
+      </c>
+      <c r="C202" t="s">
+        <v>3814</v>
+      </c>
+      <c r="D202" t="s">
+        <v>4458</v>
+      </c>
+      <c r="E202" t="s">
+        <v>10</v>
+      </c>
+      <c r="F202" t="s">
+        <v>4459</v>
+      </c>
+      <c r="G202" t="s">
+        <v>4460</v>
+      </c>
+      <c r="H202" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I202" t="s">
+        <v>20</v>
+      </c>
+      <c r="J202" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C202))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>4461</v>
+      </c>
+      <c r="B203" t="s">
+        <v>3793</v>
+      </c>
+      <c r="C203" t="s">
+        <v>3814</v>
+      </c>
+      <c r="D203" t="s">
+        <v>4458</v>
+      </c>
+      <c r="E203" t="s">
+        <v>10</v>
+      </c>
+      <c r="F203" t="s">
+        <v>4459</v>
+      </c>
+      <c r="G203" t="s">
+        <v>4460</v>
+      </c>
+      <c r="H203" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I203" t="s">
+        <v>20</v>
+      </c>
+      <c r="J203" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C203))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>4462</v>
+      </c>
+      <c r="B204" t="s">
+        <v>3793</v>
+      </c>
+      <c r="C204" t="s">
+        <v>3814</v>
+      </c>
+      <c r="D204" t="s">
+        <v>4458</v>
+      </c>
+      <c r="E204" t="s">
+        <v>10</v>
+      </c>
+      <c r="F204" t="s">
+        <v>4459</v>
+      </c>
+      <c r="G204" t="s">
+        <v>4460</v>
+      </c>
+      <c r="H204" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I204" t="s">
+        <v>20</v>
+      </c>
+      <c r="J204" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C204))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>4463</v>
+      </c>
+      <c r="B205" t="s">
+        <v>3793</v>
+      </c>
+      <c r="C205" t="s">
+        <v>3814</v>
+      </c>
+      <c r="D205" t="s">
+        <v>4458</v>
+      </c>
+      <c r="E205" t="s">
+        <v>10</v>
+      </c>
+      <c r="F205" t="s">
+        <v>4459</v>
+      </c>
+      <c r="G205" t="s">
+        <v>4460</v>
+      </c>
+      <c r="H205" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I205" t="s">
+        <v>20</v>
+      </c>
+      <c r="J205" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C205))&gt;0,"중복","")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -21040,17 +21193,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.59765625" collapsed="1"/>
-    <col min="2" max="2" width="11.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="49.296875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.09765625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="68.59765625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.59765625" collapsed="1"/>
-    <col min="8" max="8" width="26.5" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.09765625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="21.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.69921875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="8.59765625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.09765625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="49.296875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.09765625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="68.59765625" collapsed="true"/>
+    <col min="7" max="7" width="8.59765625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="26.5" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.09765625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.69921875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="12.69921875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
@@ -27554,15 +27707,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.796875" collapsed="1"/>
-    <col min="2" max="2" width="11.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="49.296875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.09765625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="57.59765625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.796875" collapsed="1"/>
-    <col min="8" max="8" width="26.5" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="34.8984375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="8.796875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.09765625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="49.296875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.09765625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="57.59765625" collapsed="true"/>
+    <col min="7" max="7" width="8.796875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="26.5" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="34.8984375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">

--- a/구매 예정 리스트.xlsx
+++ b/구매 예정 리스트.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12159" uniqueCount="4464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12169" uniqueCount="4465">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -13686,6 +13686,9 @@
   </si>
   <si>
     <t>204</t>
+  </si>
+  <si>
+    <t>205</t>
   </si>
 </sst>
 </file>
@@ -14523,7 +14526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B35123C1-8297-4A82-8257-74927FD20B55}">
-  <dimension ref="A1:K205"/>
+  <dimension ref="A1:K206"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A166" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O191" sqref="O191"/>
@@ -21164,6 +21167,39 @@
       </c>
       <c r="J205" t="str">
         <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C205))&gt;0,"중복","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>4464</v>
+      </c>
+      <c r="B206" t="s">
+        <v>3793</v>
+      </c>
+      <c r="C206" t="s">
+        <v>3814</v>
+      </c>
+      <c r="D206" t="s">
+        <v>4458</v>
+      </c>
+      <c r="E206" t="s">
+        <v>10</v>
+      </c>
+      <c r="F206" t="s">
+        <v>4459</v>
+      </c>
+      <c r="G206" t="s">
+        <v>4460</v>
+      </c>
+      <c r="H206" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I206" t="s">
+        <v>20</v>
+      </c>
+      <c r="J206" t="str">
+        <f>IF((COUNTIF('구매 물품 리스트(다이소몰)'!$C:$C,C206))&gt;0,"중복","")</f>
         <v/>
       </c>
     </row>

--- a/구매 예정 리스트.xlsx
+++ b/구매 예정 리스트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\CrawlHelper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502278A1-C901-4FD2-9E55-642D1DF9BB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2B6826-C62F-4BCD-85E4-16976B4109AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{E05FF8A7-2D10-44CA-86C7-99151189282F}"/>
+    <workbookView xWindow="-13665" yWindow="-15720" windowWidth="27495" windowHeight="12915" xr2:uid="{E05FF8A7-2D10-44CA-86C7-99151189282F}"/>
   </bookViews>
   <sheets>
     <sheet name="입력폼" sheetId="8" r:id="rId1"/>
@@ -14402,8 +14402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B35123C1-8297-4A82-8257-74927FD20B55}">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -14534,7 +14534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967E9575-1EA5-48FE-8F74-1913D542B9FE}">
   <dimension ref="A1:M1940"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1920" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A1920" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C1941" sqref="C1941"/>
     </sheetView>
   </sheetViews>
